--- a/files/tripples.xlsx
+++ b/files/tripples.xlsx
@@ -142,1630 +142,1630 @@
     <t>upapadasaM</t>
   </si>
   <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/28_Ind_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/27_inst_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/27_FV_dat_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/26_FV_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/26_FV_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/26_IV_Ind_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_acc_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_nom_adv_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_IV_acc_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_Ind_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_FV_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_acc_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/25_Ind_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/24_acc_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/24_nom_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/24_nom_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/24_g_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/24_loc_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/23_FV_adv_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/23_nom_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/23_FV_acc_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/22_Ind_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/21_acc_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/21_IV_dat_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/21_FV_Ind_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/20_Ind_inst_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/19_FV_g_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/19_IV_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/19_IV_dat_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/18_Ind_g_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/18_nom_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/18_acc_acc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/17_FV_Ind_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/17_FV_nom_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_dat_dat_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_IV_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_inst_acc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_Ind_IV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_acc_inst_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_nom_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_Ind_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_FV_nom_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/16_inst_FV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/15_FV_acc_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/15_g_Ind_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/15_acc_FV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/15_nom_Ind_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/15_FV_Ind_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_FV_FV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_Ind_Ind_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_FV_loc_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_IV_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_FV_inst_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_loc_g_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_acc_inst_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_nom_nom_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_FV_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/14_FV_nom_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/13_IV_acc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/13_IV_IV_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/13_IV_voc_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/13_loc_acc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/13_g_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/13_g_acc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/12_IV_g_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/12_loc_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/12_FV_FV_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/12_adv_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/12_acc_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/12_nom_loc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_g_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_loc_abl_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_dat_Ind_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_Ind_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_acc_FV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_FV_acc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_Ind_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_abl_Ind_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/11_inst_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_FV_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_Ind_inst_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_FV_FV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_inst_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_nom_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_loc_loc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_FV_IV_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_abl_abl_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_FV_FV_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/10_Ind_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_nom_dat_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_IV_Ind_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_FV_loc_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_Ind_loc_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_acc_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_FV_inst_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_Ind_g_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_IV_Ind_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/9_abl_Ind_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_loc_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_FV_Ind_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_FV_g_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_acc_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_IV_dat_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_acc_Ind_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_nom_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_FV_adv_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_Ind_abl_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_nom_IV_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_inst_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_acc_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_Ind_nom_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_Ind_FV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/8_IV_acc_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_Ind_abl_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_Ind_loc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_Ind_voc_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_loc_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_g_FV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_IV_IV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_acc_adv_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_nom_acc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_nom_dat_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_IV_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/7_g_inst_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_loc_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_FV_acc_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_IV_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_Ind_adv_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_IV_acc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_FV_IV_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_Ind_abl_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_dat_acc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_FV_acc_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_nom_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_IV_Ind_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_loc_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_adv_FV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_inst_inst_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_Ind_g_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_Ind_Ind_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_acc_nom_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_acc_nom_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_nom_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_Ind_loc_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/6_IV_nom_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_loc_inst_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_FV_FV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_g_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_loc_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_FV_g_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_Ind_nom_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_loc_Ind_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_nom_inst_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_nom_nom_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_IV_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_FV_IV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_IV_adv_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_adv_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_nom_loc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_FV_IV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_nom_acc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_acc_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/5_nom_inst_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_nom_acc_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_loc_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_acc_dat_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_nom_g_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_inst_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_acc_inst_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_inst_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_acc_voc_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_acc_Ind_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_g_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_adv_adv_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_voc_voc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_FV_loc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_Ind_dat_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_FV_inst_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_IV_Ind_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/4_IV_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_voc_g_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_adv_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_adv_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_Ind_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_IV_IV_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_Ind_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_Ind_Ind_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_Ind_Ind_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_inst_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_nom_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_FV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_adv_nom_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_Ind_IV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_loc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_IV_loc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_acc_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_acc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_loc_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_acc_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_nom_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_nom_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_voc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_inst_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_inst_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_acc_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_inst_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_IV_nom_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_Ind_acc_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_Ind_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_Ind_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_Ind_inst_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_dat_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_voc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_IV_acc_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_Ind_nom_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_nom_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_nom_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_nom_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_Ind_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_Ind_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_inst_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_abl_Ind_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_Ind_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_IV_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_adv_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_g_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_nom_acc_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_g_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_acc_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_FV_g_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/3_IV_inst_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_g_nom_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_inst_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_inst_dat_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_dat_Ind_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_dat_IV_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_g_abl_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_dat_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_inst_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_g_Ind_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_inst_IV_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_IV_IV_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_g_inst_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_voc_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_g_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_g_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_inst_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_inst_inst_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_Ind_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_adv_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_acc_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_acc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_abl_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_abl_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_Ind_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_loc_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_nom_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_IV_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_IV_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_voc_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_voc_Ind_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_voc_Ind_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_voc_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_voc_voc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_Ind_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_Ind_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_nom_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_Ind_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_nom_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_loc_FV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_loc_IV_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_loc_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_loc_Ind_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_loc_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_nom_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_loc_inst_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_FV_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_FV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_FV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_nom_FV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_inst_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_g_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_g_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_adv_nom_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_FV_FV_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_Ind_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_acc_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_adv_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_abl_loc_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_Ind_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_abl_FV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_IV_loc_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_dat_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_abl_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_g_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_g_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_nom_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_IV_loc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_g_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_g_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_IV_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_IV_nom_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_abl_acc_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_acc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_abl_adv_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_abl_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_acc_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_Ind_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_adv_g_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_dat_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_loc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_adv_inst_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_adv_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_acc_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_inst_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_acc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_acc_acc_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_abl_g_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/2_Ind_Ind_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_IV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_IV_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_FV_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_FV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_inst_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_IV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_FV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_Ind_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_Ind_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_abl_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_abl_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_dat_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_Ind_samucciwam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_adv_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_abl_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_FV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_IV_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_IV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_FV_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_g_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_FV_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_nom_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_g_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_IV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_FV_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_Ind_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_IV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_Ind_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_acc_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_acc_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_FV_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_adv_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_adv_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_adv_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_FV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_FV_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_dat_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_nom_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_acc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_FV_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_voc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_voc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_voc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_dat_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_nom_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_voc_FV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_voc_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_nom_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_voc_Ind_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_g_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_voc_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_IV_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_abl_FV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_loc_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_acc_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_acc_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_acc_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_g_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_acc_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_adv_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_acc_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_acc_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_abl_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_dat_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_abl_acc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_g_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_g_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_abl_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_abl_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_inst_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_abl_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_abl_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_acc_upapadasaM</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_inst_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_Ind_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_Ind_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_acc_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_nom_loc_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_Ind_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_inst_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_loc_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_adv_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_abl_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_abl_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_Ind_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_Ind_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_Ind_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_Ind_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_IV_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_FV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_acc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_nom_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_nom_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_dat_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_dat_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_loc_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_g_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_IV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_inst_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_nom_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_IV_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_loc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_loc_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_acc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_Ind_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_abl_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_abl_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_dat_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_nom_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_voc_samboxyah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_FV_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_FV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_g_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_IV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_Ind_axikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_Ind_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_adv_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_Ind_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_g_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_abl_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_inst_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_adv_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_dat_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_acc_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_acc_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_g_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_acc_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_nom_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_dat_nom_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_acc_anuyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_acc_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_nom_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_g_nom_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_IV_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_nom_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_nom_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_voc_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_FV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_FV_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_FV_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_nom_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_Ind_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_FV_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_Ind_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_nom_karanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_Ind_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_acc_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_acc_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_nom_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_abl_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_adv_loc_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_acc_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_acc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_loc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_adv_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_adv_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_adv_upapaxasambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_loc_dat_waxarwyam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_voc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_dat_prayojanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_nom_hewuh</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_dat_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_Ind_inst_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_FV_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_FV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_FV_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_IV_apaxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_acc_inst_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_IV_purvakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_IV_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_FV_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_FV_karwa</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_nom_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_Ind_kriyaviseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_Ind_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_voc_sampraxanam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_voc_sambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_voc_karwqsamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_abl_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_acc_karmasamanaxikaranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_acc_prawiyogi</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_acc_rartisambanxah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_g_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_g_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_voc_karma</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_inst_g_viseranam</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_FV_voc_bavalakranasapwamisamanakalah</t>
-  </si>
-  <si>
-    <t>https://github.com/Jivnesh/samples/blob/master/1_IV_IV_axikaranam</t>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/28_Ind_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/27_inst_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/27_FV_dat_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/26_FV_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/26_FV_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/26_IV_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_acc_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_nom_adv_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_IV_acc_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_Ind_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_FV_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_acc_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/25_Ind_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/24_acc_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/24_nom_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/24_nom_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/24_g_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/24_loc_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/23_FV_adv_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/23_nom_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/23_FV_acc_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/22_Ind_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/21_acc_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/21_IV_dat_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/21_FV_Ind_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/20_Ind_inst_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/19_FV_g_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/19_IV_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/19_IV_dat_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/18_Ind_g_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/18_nom_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/18_acc_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/17_FV_Ind_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/17_FV_nom_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_dat_dat_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_IV_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_inst_acc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_Ind_IV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_acc_inst_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_nom_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_Ind_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_FV_nom_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/16_inst_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/15_FV_acc_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/15_g_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/15_acc_FV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/15_nom_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/15_FV_Ind_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_FV_FV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_Ind_Ind_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_FV_loc_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_IV_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_FV_inst_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_loc_g_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_acc_inst_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_nom_nom_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_FV_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/14_FV_nom_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/13_IV_acc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/13_IV_IV_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/13_IV_voc_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/13_loc_acc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/13_g_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/13_g_acc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/12_IV_g_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/12_loc_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/12_FV_FV_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/12_adv_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/12_acc_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/12_nom_loc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_g_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_loc_abl_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_dat_Ind_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_Ind_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_acc_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_FV_acc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_Ind_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_abl_Ind_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/11_inst_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_FV_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_Ind_inst_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_FV_FV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_inst_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_nom_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_loc_loc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_FV_IV_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_abl_abl_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_FV_FV_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/10_Ind_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_nom_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_IV_Ind_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_FV_loc_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_Ind_loc_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_acc_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_FV_inst_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_Ind_g_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_IV_Ind_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/9_abl_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_loc_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_FV_Ind_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_FV_g_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_acc_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_IV_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_acc_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_nom_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_FV_adv_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_Ind_abl_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_nom_IV_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_inst_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_acc_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_Ind_nom_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_Ind_FV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/8_IV_acc_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_Ind_abl_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_Ind_loc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_Ind_voc_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_loc_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_g_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_IV_IV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_acc_adv_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_nom_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_nom_dat_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_IV_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/7_g_inst_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_loc_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_FV_acc_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_IV_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_Ind_adv_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_IV_acc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_FV_IV_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_Ind_abl_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_dat_acc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_FV_acc_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_nom_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_IV_Ind_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_loc_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_adv_FV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_inst_inst_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_Ind_g_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_Ind_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_acc_nom_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_acc_nom_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_nom_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_Ind_loc_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/6_IV_nom_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_loc_inst_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_FV_FV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_g_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_loc_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_FV_g_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_Ind_nom_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_loc_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_nom_inst_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_nom_nom_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_IV_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_FV_IV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_IV_adv_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_adv_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_nom_loc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_FV_IV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_nom_acc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_acc_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/5_nom_inst_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_nom_acc_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_loc_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_acc_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_nom_g_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_inst_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_acc_inst_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_inst_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_acc_voc_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_acc_Ind_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_g_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_adv_adv_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_voc_voc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_FV_loc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_Ind_dat_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_FV_inst_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_IV_Ind_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/4_IV_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_voc_g_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_adv_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_adv_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_Ind_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_IV_IV_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_Ind_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_Ind_Ind_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_Ind_Ind_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_inst_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_nom_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_FV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_adv_nom_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_Ind_IV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_loc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_IV_loc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_acc_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_acc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_loc_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_acc_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_nom_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_nom_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_voc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_inst_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_inst_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_acc_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_inst_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_IV_nom_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_Ind_acc_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_Ind_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_Ind_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_Ind_inst_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_dat_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_voc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_IV_acc_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_Ind_nom_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_nom_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_nom_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_nom_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_Ind_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_Ind_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_inst_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_abl_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_Ind_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_IV_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_adv_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_g_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_nom_acc_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_g_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_acc_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_FV_g_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/3_IV_inst_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_g_nom_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_inst_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_inst_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_dat_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_dat_IV_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_g_abl_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_dat_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_inst_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_g_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_inst_IV_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_IV_IV_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_g_inst_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_voc_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_g_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_g_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_inst_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_inst_inst_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_Ind_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_adv_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_acc_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_acc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_abl_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_abl_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_Ind_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_loc_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_nom_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_IV_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_IV_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_voc_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_voc_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_voc_Ind_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_voc_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_voc_voc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_Ind_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_Ind_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_nom_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_Ind_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_nom_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_loc_FV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_loc_IV_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_loc_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_loc_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_loc_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_nom_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_loc_inst_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_FV_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_FV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_FV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_nom_FV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_inst_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_g_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_g_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_adv_nom_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_FV_FV_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_Ind_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_acc_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_adv_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_abl_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_Ind_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_abl_FV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_IV_loc_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_dat_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_abl_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_g_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_g_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_nom_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_IV_loc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_g_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_g_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_IV_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_IV_nom_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_abl_acc_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_acc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_abl_adv_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_abl_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_acc_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_Ind_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_adv_g_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_dat_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_loc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_adv_inst_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_adv_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_acc_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_inst_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_acc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_acc_acc_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_abl_g_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/2_Ind_Ind_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_IV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_IV_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_FV_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_FV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_inst_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_IV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_FV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_Ind_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_Ind_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_abl_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_abl_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_dat_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_Ind_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_adv_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_abl_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_FV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_IV_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_IV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_FV_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_g_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_FV_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_nom_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_g_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_IV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_FV_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_Ind_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_IV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_Ind_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_acc_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_acc_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_FV_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_adv_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_adv_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_adv_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_FV_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_dat_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_nom_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_FV_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_voc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_voc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_voc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_nom_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_voc_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_voc_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_nom_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_voc_Ind_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_g_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_voc_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_IV_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_abl_FV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_loc_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_acc_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_acc_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_acc_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_g_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_acc_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_adv_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_acc_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_acc_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_abl_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_dat_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_abl_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_g_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_g_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_abl_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_abl_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_inst_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_abl_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_abl_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_acc_upapadasaM</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_inst_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_Ind_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_Ind_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_acc_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_nom_loc_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_Ind_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_loc_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_adv_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_abl_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_abl_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_Ind_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_Ind_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_Ind_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_Ind_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_IV_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_FV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_acc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_nom_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_dat_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_dat_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_loc_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_g_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_IV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_inst_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_nom_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_IV_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_loc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_loc_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_acc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_Ind_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_abl_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_abl_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_dat_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_nom_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_voc_samboxyah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_FV_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_FV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_g_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_Ind_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_Ind_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_adv_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_Ind_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_g_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_abl_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_inst_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_adv_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_dat_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_acc_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_acc_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_g_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_acc_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_nom_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_dat_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_acc_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_acc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_nom_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_g_nom_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_IV_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_nom_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_nom_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_voc_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_FV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_FV_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_nom_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_Ind_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_FV_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_Ind_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_nom_karanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_Ind_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_acc_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_acc_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_nom_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_abl_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_adv_loc_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_acc_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_loc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_adv_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_adv_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_loc_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_voc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_dat_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_nom_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_dat_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_Ind_inst_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_FV_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_FV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_FV_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_IV_apaxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_acc_inst_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_IV_purvakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_IV_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_FV_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_FV_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_nom_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_Ind_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_voc_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_voc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_voc_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_abl_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_acc_karmasamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_acc_prawiyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_acc_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_g_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_g_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_voc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_inst_g_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_FV_voc_bavalakranasapwamisamanakalah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/1_IV_IV_axikaranam</t>
   </si>
 </sst>
 </file>

--- a/files/tripples.xlsx
+++ b/files/tripples.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="612">
   <si>
     <t>modifier_pos</t>
   </si>
@@ -140,6 +140,90 @@
   </si>
   <si>
     <t>upapadasaM</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/48_nom_IV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/48_nom_Ind_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/45_Ind_acc_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/45_inst_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/44_FV_dat_sampraxanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/44_acc_nom_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/44_FV_Ind_prayojanam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/42_FV_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/42_IV_nom_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/40_FV_adv_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/40_acc_acc_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/40_nom_inst_hewuh</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/39_FV_acc_karwa</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/37_IV_Ind_kriyaviseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/36_IV_nom_karwqsamanaxikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/34_acc_loc_axikaranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/33_Ind_acc_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/33_IV_acc_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/32_dat_g_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/32_nom_nom_karma</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/32_nom_FV_viseranam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/32_Ind_Ind_samucciwam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/32_Ind_Ind_anuyogi</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/31_Ind_g_rartisambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/30_nom_nom_sambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/30_FV_dat_waxarwyam</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/30_Ind_inst_upapaxasambanxah</t>
+  </si>
+  <si>
+    <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/30_FV_Ind_karwa</t>
   </si>
   <si>
     <t>https://github.com/Jivnesh/STBC_Analysis/blob/main/files/samples/28_Ind_nom_karwa</t>
@@ -3405,7 +3489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3425,7 +3509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>10</v>
@@ -3442,8 +3526,11 @@
       <c r="F66">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>11</v>
@@ -3460,8 +3547,11 @@
       <c r="F67">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -3480,8 +3570,11 @@
       <c r="F68">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -3500,8 +3593,11 @@
       <c r="F69">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -3520,8 +3616,11 @@
       <c r="F70">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -3540,8 +3639,11 @@
       <c r="F71">
         <v>44</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -3560,8 +3662,11 @@
       <c r="F72">
         <v>44</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>9</v>
@@ -3578,8 +3683,11 @@
       <c r="F73">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3598,8 +3706,11 @@
       <c r="F74">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -3618,8 +3729,11 @@
       <c r="F75">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -3638,8 +3752,11 @@
       <c r="F76">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -3658,8 +3775,11 @@
       <c r="F77">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -3678,8 +3798,11 @@
       <c r="F78">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3698,8 +3821,11 @@
       <c r="F79">
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>8</v>
@@ -3715,6 +3841,9 @@
       </c>
       <c r="F80">
         <v>36</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3736,6 +3865,9 @@
       <c r="F81">
         <v>34</v>
       </c>
+      <c r="G81" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
@@ -3755,6 +3887,9 @@
       </c>
       <c r="F82">
         <v>33</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3776,6 +3911,9 @@
       <c r="F83">
         <v>33</v>
       </c>
+      <c r="G83" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
@@ -3796,6 +3934,9 @@
       <c r="F84">
         <v>32</v>
       </c>
+      <c r="G84" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -3815,6 +3956,9 @@
       </c>
       <c r="F85">
         <v>32</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3834,6 +3978,9 @@
       <c r="F86">
         <v>32</v>
       </c>
+      <c r="G86" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
@@ -3853,6 +4000,9 @@
       </c>
       <c r="F87">
         <v>32</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3870,6 +4020,9 @@
       <c r="F88">
         <v>32</v>
       </c>
+      <c r="G88" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1"/>
@@ -3888,6 +4041,9 @@
       <c r="F89">
         <v>31</v>
       </c>
+      <c r="G89" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
@@ -3907,6 +4063,9 @@
       </c>
       <c r="F90">
         <v>30</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3928,6 +4087,9 @@
       <c r="F91">
         <v>30</v>
       </c>
+      <c r="G91" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
@@ -3947,6 +4109,9 @@
       </c>
       <c r="F92">
         <v>30</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3968,6 +4133,9 @@
       <c r="F93">
         <v>30</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
@@ -3989,7 +4157,7 @@
         <v>28</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4012,7 +4180,7 @@
         <v>27</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4035,7 +4203,7 @@
         <v>27</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4056,7 +4224,7 @@
         <v>26</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4077,7 +4245,7 @@
         <v>26</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4100,7 +4268,7 @@
         <v>26</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4123,7 +4291,7 @@
         <v>25</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4146,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4169,7 +4337,7 @@
         <v>25</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4192,7 +4360,7 @@
         <v>25</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4215,7 +4383,7 @@
         <v>25</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4238,7 +4406,7 @@
         <v>25</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4261,7 +4429,7 @@
         <v>25</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4284,7 +4452,7 @@
         <v>24</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4307,7 +4475,7 @@
         <v>24</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4328,7 +4496,7 @@
         <v>24</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4351,7 +4519,7 @@
         <v>24</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4374,7 +4542,7 @@
         <v>24</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4397,7 +4565,7 @@
         <v>23</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4420,7 +4588,7 @@
         <v>23</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4443,7 +4611,7 @@
         <v>23</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4466,7 +4634,7 @@
         <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4489,7 +4657,7 @@
         <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4512,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4535,7 +4703,7 @@
         <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4558,7 +4726,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4581,7 +4749,7 @@
         <v>19</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4604,7 +4772,7 @@
         <v>19</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4625,7 +4793,7 @@
         <v>19</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4648,7 +4816,7 @@
         <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4671,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4694,7 +4862,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4717,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4738,7 +4906,7 @@
         <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4761,7 +4929,7 @@
         <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4784,7 +4952,7 @@
         <v>16</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4807,7 +4975,7 @@
         <v>16</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4830,7 +4998,7 @@
         <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4853,7 +5021,7 @@
         <v>16</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4876,7 +5044,7 @@
         <v>16</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4899,7 +5067,7 @@
         <v>16</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4922,7 +5090,7 @@
         <v>16</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4945,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4968,7 +5136,7 @@
         <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4991,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5014,7 +5182,7 @@
         <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5037,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5060,7 +5228,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5081,7 +5249,7 @@
         <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5104,7 +5272,7 @@
         <v>14</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5127,7 +5295,7 @@
         <v>14</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5150,7 +5318,7 @@
         <v>14</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5173,7 +5341,7 @@
         <v>14</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5196,7 +5364,7 @@
         <v>14</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5219,7 +5387,7 @@
         <v>14</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5242,7 +5410,7 @@
         <v>14</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5265,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5286,7 +5454,7 @@
         <v>14</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5309,7 +5477,7 @@
         <v>13</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5330,7 +5498,7 @@
         <v>13</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5351,7 +5519,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5374,7 +5542,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5397,7 +5565,7 @@
         <v>13</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5418,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5441,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5464,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5487,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5510,7 +5678,7 @@
         <v>12</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5533,7 +5701,7 @@
         <v>12</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5556,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5579,7 +5747,7 @@
         <v>11</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5602,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5625,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5648,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5671,7 +5839,7 @@
         <v>11</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5694,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5717,7 +5885,7 @@
         <v>11</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5740,7 +5908,7 @@
         <v>11</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5763,7 +5931,7 @@
         <v>11</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5786,7 +5954,7 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5809,7 +5977,7 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5832,7 +6000,7 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5855,7 +6023,7 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5878,7 +6046,7 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5901,7 +6069,7 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5924,7 +6092,7 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5947,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5970,7 +6138,7 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5993,7 +6161,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6016,7 +6184,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6039,7 +6207,7 @@
         <v>9</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6062,7 +6230,7 @@
         <v>9</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6085,7 +6253,7 @@
         <v>9</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6108,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6131,7 +6299,7 @@
         <v>9</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6154,7 +6322,7 @@
         <v>9</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6177,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6200,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6223,7 +6391,7 @@
         <v>8</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6246,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6267,7 +6435,7 @@
         <v>8</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6290,7 +6458,7 @@
         <v>8</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6313,7 +6481,7 @@
         <v>8</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6336,7 +6504,7 @@
         <v>8</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6359,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6382,7 +6550,7 @@
         <v>8</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6405,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6428,7 +6596,7 @@
         <v>8</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6451,7 +6619,7 @@
         <v>8</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6474,7 +6642,7 @@
         <v>8</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6497,7 +6665,7 @@
         <v>8</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6518,7 +6686,7 @@
         <v>8</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6541,7 +6709,7 @@
         <v>8</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6564,7 +6732,7 @@
         <v>7</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6585,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6606,7 +6774,7 @@
         <v>7</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6629,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6652,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6675,7 +6843,7 @@
         <v>7</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6698,7 +6866,7 @@
         <v>7</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6721,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6742,7 +6910,7 @@
         <v>7</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6765,7 +6933,7 @@
         <v>7</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6788,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6811,7 +6979,7 @@
         <v>6</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6834,7 +7002,7 @@
         <v>6</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6857,7 +7025,7 @@
         <v>6</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6880,7 +7048,7 @@
         <v>6</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6903,7 +7071,7 @@
         <v>6</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6926,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6949,7 +7117,7 @@
         <v>6</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6972,7 +7140,7 @@
         <v>6</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6995,7 +7163,7 @@
         <v>6</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7018,7 +7186,7 @@
         <v>6</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7041,7 +7209,7 @@
         <v>6</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7064,7 +7232,7 @@
         <v>6</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7087,7 +7255,7 @@
         <v>6</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7110,7 +7278,7 @@
         <v>6</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7133,7 +7301,7 @@
         <v>6</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7154,7 +7322,7 @@
         <v>6</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7177,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7196,7 +7364,7 @@
         <v>6</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7219,7 +7387,7 @@
         <v>6</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7242,7 +7410,7 @@
         <v>6</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7265,7 +7433,7 @@
         <v>6</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7288,7 +7456,7 @@
         <v>5</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7311,7 +7479,7 @@
         <v>5</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7334,7 +7502,7 @@
         <v>5</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7357,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7380,7 +7548,7 @@
         <v>5</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7403,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7426,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7449,7 +7617,7 @@
         <v>5</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7470,7 +7638,7 @@
         <v>5</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7493,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7516,7 +7684,7 @@
         <v>5</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7539,7 +7707,7 @@
         <v>5</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7562,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7585,7 +7753,7 @@
         <v>5</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7608,7 +7776,7 @@
         <v>5</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7631,7 +7799,7 @@
         <v>5</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7654,7 +7822,7 @@
         <v>5</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7677,7 +7845,7 @@
         <v>5</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7698,7 +7866,7 @@
         <v>4</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7721,7 +7889,7 @@
         <v>4</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7744,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7767,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7790,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7813,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7836,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7859,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7880,7 +8048,7 @@
         <v>4</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7903,7 +8071,7 @@
         <v>4</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7926,7 +8094,7 @@
         <v>4</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7949,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7972,7 +8140,7 @@
         <v>4</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7995,7 +8163,7 @@
         <v>4</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8018,7 +8186,7 @@
         <v>4</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8041,7 +8209,7 @@
         <v>4</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8062,7 +8230,7 @@
         <v>4</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8085,7 +8253,7 @@
         <v>3</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8108,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8131,7 +8299,7 @@
         <v>3</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8154,7 +8322,7 @@
         <v>3</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8177,7 +8345,7 @@
         <v>3</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8200,7 +8368,7 @@
         <v>3</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8223,7 +8391,7 @@
         <v>3</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8242,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8265,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8288,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8311,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8332,7 +8500,7 @@
         <v>3</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8355,7 +8523,7 @@
         <v>3</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8378,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8401,7 +8569,7 @@
         <v>3</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8424,7 +8592,7 @@
         <v>3</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8447,7 +8615,7 @@
         <v>3</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8470,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8489,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8512,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8535,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8556,7 +8724,7 @@
         <v>3</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8579,7 +8747,7 @@
         <v>3</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8598,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8619,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8642,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8663,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8686,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8709,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8732,7 +8900,7 @@
         <v>3</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8755,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8778,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8797,7 +8965,7 @@
         <v>3</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8820,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8843,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8866,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8889,7 +9057,7 @@
         <v>3</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8912,7 +9080,7 @@
         <v>3</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8935,7 +9103,7 @@
         <v>3</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8954,7 +9122,7 @@
         <v>3</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -8973,7 +9141,7 @@
         <v>3</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -8996,7 +9164,7 @@
         <v>3</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9017,7 +9185,7 @@
         <v>3</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -9036,7 +9204,7 @@
         <v>3</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9059,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9082,7 +9250,7 @@
         <v>3</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9105,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9128,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9151,7 +9319,7 @@
         <v>3</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9174,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9197,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -9220,7 +9388,7 @@
         <v>3</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9243,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9266,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9289,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9310,7 +9478,7 @@
         <v>3</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9333,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9356,7 +9524,7 @@
         <v>2</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9379,7 +9547,7 @@
         <v>2</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9400,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9423,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -9444,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9467,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9490,7 +9658,7 @@
         <v>2</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9513,7 +9681,7 @@
         <v>2</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9536,7 +9704,7 @@
         <v>2</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9559,7 +9727,7 @@
         <v>2</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -9582,7 +9750,7 @@
         <v>2</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9605,7 +9773,7 @@
         <v>2</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9628,7 +9796,7 @@
         <v>2</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9651,7 +9819,7 @@
         <v>2</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9672,7 +9840,7 @@
         <v>2</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9695,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9718,7 +9886,7 @@
         <v>2</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -9741,7 +9909,7 @@
         <v>2</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -9764,7 +9932,7 @@
         <v>2</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -9787,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -9806,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -9829,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -9848,7 +10016,7 @@
         <v>2</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -9869,7 +10037,7 @@
         <v>2</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -9892,7 +10060,7 @@
         <v>2</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -9913,7 +10081,7 @@
         <v>2</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -9936,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -9955,7 +10123,7 @@
         <v>2</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -9978,7 +10146,7 @@
         <v>2</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -10001,7 +10169,7 @@
         <v>2</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10020,7 +10188,7 @@
         <v>2</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -10041,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10062,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10085,7 +10253,7 @@
         <v>2</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10104,7 +10272,7 @@
         <v>2</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10127,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10150,7 +10318,7 @@
         <v>2</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -10173,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10196,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -10217,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10236,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10257,7 +10425,7 @@
         <v>2</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -10278,7 +10446,7 @@
         <v>2</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10301,7 +10469,7 @@
         <v>2</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10324,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10347,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -10366,7 +10534,7 @@
         <v>2</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -10385,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -10404,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -10427,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -10448,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -10467,7 +10635,7 @@
         <v>2</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -10490,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -10513,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -10536,7 +10704,7 @@
         <v>2</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -10557,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -10580,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -10601,7 +10769,7 @@
         <v>2</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10622,7 +10790,7 @@
         <v>2</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -10645,7 +10813,7 @@
         <v>2</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -10668,7 +10836,7 @@
         <v>2</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -10691,7 +10859,7 @@
         <v>2</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -10714,7 +10882,7 @@
         <v>2</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -10737,7 +10905,7 @@
         <v>2</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -10760,7 +10928,7 @@
         <v>2</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -10783,7 +10951,7 @@
         <v>2</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -10806,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -10825,7 +10993,7 @@
         <v>2</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -10848,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -10869,7 +11037,7 @@
         <v>2</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -10892,7 +11060,7 @@
         <v>2</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -10915,7 +11083,7 @@
         <v>2</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -10938,7 +11106,7 @@
         <v>2</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -10957,7 +11125,7 @@
         <v>2</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -10980,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -10999,7 +11167,7 @@
         <v>2</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11022,7 +11190,7 @@
         <v>2</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -11045,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -11068,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -11089,7 +11257,7 @@
         <v>2</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11112,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11135,7 +11303,7 @@
         <v>2</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11158,7 +11326,7 @@
         <v>2</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11181,7 +11349,7 @@
         <v>2</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11202,7 +11370,7 @@
         <v>2</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11225,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11244,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11267,7 +11435,7 @@
         <v>2</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11290,7 +11458,7 @@
         <v>2</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11313,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -11336,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11355,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -11378,7 +11546,7 @@
         <v>2</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -11401,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -11424,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -11443,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -11466,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -11485,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -11508,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -11531,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -11554,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -11577,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -11600,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -11623,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -11646,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -11669,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -11692,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -11715,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -11738,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -11759,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -11782,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -11805,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -11828,7 +11996,7 @@
         <v>1</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -11851,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -11874,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -11897,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -11918,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -11941,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -11964,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -11983,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -12006,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -12027,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -12050,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -12073,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -12096,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -12119,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -12142,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -12161,7 +12329,7 @@
         <v>1</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -12184,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -12207,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -12230,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -12251,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -12274,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -12293,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -12312,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -12335,7 +12503,7 @@
         <v>1</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -12354,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -12373,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -12396,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -12415,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -12438,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -12457,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -12476,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -12499,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -12522,7 +12690,7 @@
         <v>1</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -12545,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -12568,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -12591,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -12610,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -12629,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -12652,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -12673,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -12696,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -12717,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -12740,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -12763,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -12786,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -12809,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -12832,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -12851,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -12874,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -12897,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -12920,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -12943,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -12966,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -12989,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -13012,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -13035,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -13058,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -13077,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -13098,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -13121,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -13144,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -13167,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -13186,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -13209,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -13228,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -13251,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -13274,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -13297,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -13320,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -13343,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -13366,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -13385,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -13408,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -13431,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -13454,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -13477,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -13500,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -13523,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -13546,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -13569,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -13588,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -13611,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -13630,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -13653,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -13674,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -13697,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -13718,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -13739,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -13762,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -13781,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -13804,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -13823,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -13846,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -13869,7 +14037,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -13888,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -13911,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -13934,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -13957,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -13980,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -13999,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -14022,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -14043,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -14066,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -14085,7 +14253,7 @@
         <v>1</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -14104,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -14127,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -14150,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -14173,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -14192,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -14213,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -14236,7 +14404,7 @@
         <v>1</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -14257,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -14280,7 +14448,7 @@
         <v>1</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -14299,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -14322,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -14345,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -14364,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -14385,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -14404,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -14427,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -14450,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -14473,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -14496,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -14519,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -14542,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -14563,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -14586,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -14605,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -14628,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -14651,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -14674,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -14693,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -14716,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -14739,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -14762,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -14785,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -14808,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -14831,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -14852,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -14875,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -14898,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -14921,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -14940,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -14961,7 +15129,7 @@
         <v>1</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -14984,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -15007,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -15030,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -15053,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -15076,7 +15244,7 @@
         <v>1</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -15099,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -15122,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -15145,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -15164,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -15187,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -15210,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -15233,7 +15401,7 @@
         <v>1</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -15256,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -15275,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -15298,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -15321,7 +15489,7 @@
         <v>1</v>
       </c>
       <c r="G602" s="2" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -15340,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="2" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -15359,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -15380,7 +15548,7 @@
         <v>1</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -15403,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -15426,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="G607" s="2" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -15449,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="G608" s="2" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -15472,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -15495,7 +15663,7 @@
         <v>1</v>
       </c>
       <c r="G610" s="2" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -15518,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="2" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -15537,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="G612" s="2" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -15556,7 +15724,7 @@
         <v>1</v>
       </c>
       <c r="G613" s="2" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -15579,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="G614" s="2" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -15602,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -15625,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -15644,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -15667,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -15686,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -15707,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="G620" s="2" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -15730,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="G621" s="2" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -15749,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="2" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -15772,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="G623" s="2" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -15791,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -15810,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="G625" s="2" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -15833,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="G626" s="2" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -15854,7 +16022,7 @@
         <v>1</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -15873,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="G628" s="2" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -15892,7 +16060,7 @@
         <v>1</v>
       </c>
       <c r="G629" s="2" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -15913,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="G630" s="2" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -15932,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="G631" s="2" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -15955,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -15978,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="G633" s="2" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -16001,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="G634" s="2" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -16024,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="G635" s="2" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -16201,548 +16369,576 @@
     <mergeCell ref="B630:B631"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G94" r:id="rId1"/>
-    <hyperlink ref="G95" r:id="rId2"/>
-    <hyperlink ref="G96" r:id="rId3"/>
-    <hyperlink ref="G97" r:id="rId4"/>
-    <hyperlink ref="G98" r:id="rId5"/>
-    <hyperlink ref="G99" r:id="rId6"/>
-    <hyperlink ref="G100" r:id="rId7"/>
-    <hyperlink ref="G101" r:id="rId8"/>
-    <hyperlink ref="G102" r:id="rId9"/>
-    <hyperlink ref="G103" r:id="rId10"/>
-    <hyperlink ref="G104" r:id="rId11"/>
-    <hyperlink ref="G105" r:id="rId12"/>
-    <hyperlink ref="G106" r:id="rId13"/>
-    <hyperlink ref="G107" r:id="rId14"/>
-    <hyperlink ref="G108" r:id="rId15"/>
-    <hyperlink ref="G109" r:id="rId16"/>
-    <hyperlink ref="G110" r:id="rId17"/>
-    <hyperlink ref="G111" r:id="rId18"/>
-    <hyperlink ref="G112" r:id="rId19"/>
-    <hyperlink ref="G113" r:id="rId20"/>
-    <hyperlink ref="G114" r:id="rId21"/>
-    <hyperlink ref="G115" r:id="rId22"/>
-    <hyperlink ref="G116" r:id="rId23"/>
-    <hyperlink ref="G117" r:id="rId24"/>
-    <hyperlink ref="G118" r:id="rId25"/>
-    <hyperlink ref="G119" r:id="rId26"/>
-    <hyperlink ref="G120" r:id="rId27"/>
-    <hyperlink ref="G121" r:id="rId28"/>
-    <hyperlink ref="G122" r:id="rId29"/>
-    <hyperlink ref="G123" r:id="rId30"/>
-    <hyperlink ref="G124" r:id="rId31"/>
-    <hyperlink ref="G125" r:id="rId32"/>
-    <hyperlink ref="G126" r:id="rId33"/>
-    <hyperlink ref="G127" r:id="rId34"/>
-    <hyperlink ref="G128" r:id="rId35"/>
-    <hyperlink ref="G129" r:id="rId36"/>
-    <hyperlink ref="G130" r:id="rId37"/>
-    <hyperlink ref="G131" r:id="rId38"/>
-    <hyperlink ref="G132" r:id="rId39"/>
-    <hyperlink ref="G133" r:id="rId40"/>
-    <hyperlink ref="G134" r:id="rId41"/>
-    <hyperlink ref="G135" r:id="rId42"/>
-    <hyperlink ref="G136" r:id="rId43"/>
-    <hyperlink ref="G137" r:id="rId44"/>
-    <hyperlink ref="G138" r:id="rId45"/>
-    <hyperlink ref="G139" r:id="rId46"/>
-    <hyperlink ref="G140" r:id="rId47"/>
-    <hyperlink ref="G141" r:id="rId48"/>
-    <hyperlink ref="G142" r:id="rId49"/>
-    <hyperlink ref="G143" r:id="rId50"/>
-    <hyperlink ref="G144" r:id="rId51"/>
-    <hyperlink ref="G145" r:id="rId52"/>
-    <hyperlink ref="G146" r:id="rId53"/>
-    <hyperlink ref="G147" r:id="rId54"/>
-    <hyperlink ref="G148" r:id="rId55"/>
-    <hyperlink ref="G149" r:id="rId56"/>
-    <hyperlink ref="G150" r:id="rId57"/>
-    <hyperlink ref="G151" r:id="rId58"/>
-    <hyperlink ref="G152" r:id="rId59"/>
-    <hyperlink ref="G153" r:id="rId60"/>
-    <hyperlink ref="G154" r:id="rId61"/>
-    <hyperlink ref="G155" r:id="rId62"/>
-    <hyperlink ref="G156" r:id="rId63"/>
-    <hyperlink ref="G157" r:id="rId64"/>
-    <hyperlink ref="G158" r:id="rId65"/>
-    <hyperlink ref="G159" r:id="rId66"/>
-    <hyperlink ref="G160" r:id="rId67"/>
-    <hyperlink ref="G161" r:id="rId68"/>
-    <hyperlink ref="G162" r:id="rId69"/>
-    <hyperlink ref="G163" r:id="rId70"/>
-    <hyperlink ref="G164" r:id="rId71"/>
-    <hyperlink ref="G165" r:id="rId72"/>
-    <hyperlink ref="G166" r:id="rId73"/>
-    <hyperlink ref="G167" r:id="rId74"/>
-    <hyperlink ref="G168" r:id="rId75"/>
-    <hyperlink ref="G169" r:id="rId76"/>
-    <hyperlink ref="G170" r:id="rId77"/>
-    <hyperlink ref="G171" r:id="rId78"/>
-    <hyperlink ref="G172" r:id="rId79"/>
-    <hyperlink ref="G173" r:id="rId80"/>
-    <hyperlink ref="G174" r:id="rId81"/>
-    <hyperlink ref="G175" r:id="rId82"/>
-    <hyperlink ref="G176" r:id="rId83"/>
-    <hyperlink ref="G177" r:id="rId84"/>
-    <hyperlink ref="G178" r:id="rId85"/>
-    <hyperlink ref="G179" r:id="rId86"/>
-    <hyperlink ref="G180" r:id="rId87"/>
-    <hyperlink ref="G181" r:id="rId88"/>
-    <hyperlink ref="G182" r:id="rId89"/>
-    <hyperlink ref="G183" r:id="rId90"/>
-    <hyperlink ref="G184" r:id="rId91"/>
-    <hyperlink ref="G185" r:id="rId92"/>
-    <hyperlink ref="G186" r:id="rId93"/>
-    <hyperlink ref="G187" r:id="rId94"/>
-    <hyperlink ref="G188" r:id="rId95"/>
-    <hyperlink ref="G189" r:id="rId96"/>
-    <hyperlink ref="G190" r:id="rId97"/>
-    <hyperlink ref="G191" r:id="rId98"/>
-    <hyperlink ref="G192" r:id="rId99"/>
-    <hyperlink ref="G193" r:id="rId100"/>
-    <hyperlink ref="G194" r:id="rId101"/>
-    <hyperlink ref="G195" r:id="rId102"/>
-    <hyperlink ref="G196" r:id="rId103"/>
-    <hyperlink ref="G197" r:id="rId104"/>
-    <hyperlink ref="G198" r:id="rId105"/>
-    <hyperlink ref="G199" r:id="rId106"/>
-    <hyperlink ref="G200" r:id="rId107"/>
-    <hyperlink ref="G201" r:id="rId108"/>
-    <hyperlink ref="G202" r:id="rId109"/>
-    <hyperlink ref="G203" r:id="rId110"/>
-    <hyperlink ref="G204" r:id="rId111"/>
-    <hyperlink ref="G205" r:id="rId112"/>
-    <hyperlink ref="G206" r:id="rId113"/>
-    <hyperlink ref="G207" r:id="rId114"/>
-    <hyperlink ref="G208" r:id="rId115"/>
-    <hyperlink ref="G209" r:id="rId116"/>
-    <hyperlink ref="G210" r:id="rId117"/>
-    <hyperlink ref="G211" r:id="rId118"/>
-    <hyperlink ref="G212" r:id="rId119"/>
-    <hyperlink ref="G213" r:id="rId120"/>
-    <hyperlink ref="G214" r:id="rId121"/>
-    <hyperlink ref="G215" r:id="rId122"/>
-    <hyperlink ref="G216" r:id="rId123"/>
-    <hyperlink ref="G217" r:id="rId124"/>
-    <hyperlink ref="G218" r:id="rId125"/>
-    <hyperlink ref="G219" r:id="rId126"/>
-    <hyperlink ref="G220" r:id="rId127"/>
-    <hyperlink ref="G221" r:id="rId128"/>
-    <hyperlink ref="G222" r:id="rId129"/>
-    <hyperlink ref="G223" r:id="rId130"/>
-    <hyperlink ref="G224" r:id="rId131"/>
-    <hyperlink ref="G225" r:id="rId132"/>
-    <hyperlink ref="G226" r:id="rId133"/>
-    <hyperlink ref="G227" r:id="rId134"/>
-    <hyperlink ref="G228" r:id="rId135"/>
-    <hyperlink ref="G229" r:id="rId136"/>
-    <hyperlink ref="G230" r:id="rId137"/>
-    <hyperlink ref="G231" r:id="rId138"/>
-    <hyperlink ref="G232" r:id="rId139"/>
-    <hyperlink ref="G233" r:id="rId140"/>
-    <hyperlink ref="G234" r:id="rId141"/>
-    <hyperlink ref="G235" r:id="rId142"/>
-    <hyperlink ref="G236" r:id="rId143"/>
-    <hyperlink ref="G237" r:id="rId144"/>
-    <hyperlink ref="G238" r:id="rId145"/>
-    <hyperlink ref="G239" r:id="rId146"/>
-    <hyperlink ref="G240" r:id="rId147"/>
-    <hyperlink ref="G241" r:id="rId148"/>
-    <hyperlink ref="G242" r:id="rId149"/>
-    <hyperlink ref="G243" r:id="rId150"/>
-    <hyperlink ref="G244" r:id="rId151"/>
-    <hyperlink ref="G245" r:id="rId152"/>
-    <hyperlink ref="G246" r:id="rId153"/>
-    <hyperlink ref="G247" r:id="rId154"/>
-    <hyperlink ref="G248" r:id="rId155"/>
-    <hyperlink ref="G249" r:id="rId156"/>
-    <hyperlink ref="G250" r:id="rId157"/>
-    <hyperlink ref="G251" r:id="rId158"/>
-    <hyperlink ref="G252" r:id="rId159"/>
-    <hyperlink ref="G253" r:id="rId160"/>
-    <hyperlink ref="G254" r:id="rId161"/>
-    <hyperlink ref="G255" r:id="rId162"/>
-    <hyperlink ref="G256" r:id="rId163"/>
-    <hyperlink ref="G257" r:id="rId164"/>
-    <hyperlink ref="G258" r:id="rId165"/>
-    <hyperlink ref="G259" r:id="rId166"/>
-    <hyperlink ref="G260" r:id="rId167"/>
-    <hyperlink ref="G261" r:id="rId168"/>
-    <hyperlink ref="G262" r:id="rId169"/>
-    <hyperlink ref="G263" r:id="rId170"/>
-    <hyperlink ref="G264" r:id="rId171"/>
-    <hyperlink ref="G265" r:id="rId172"/>
-    <hyperlink ref="G266" r:id="rId173"/>
-    <hyperlink ref="G267" r:id="rId174"/>
-    <hyperlink ref="G268" r:id="rId175"/>
-    <hyperlink ref="G269" r:id="rId176"/>
-    <hyperlink ref="G270" r:id="rId177"/>
-    <hyperlink ref="G271" r:id="rId178"/>
-    <hyperlink ref="G272" r:id="rId179"/>
-    <hyperlink ref="G273" r:id="rId180"/>
-    <hyperlink ref="G274" r:id="rId181"/>
-    <hyperlink ref="G275" r:id="rId182"/>
-    <hyperlink ref="G276" r:id="rId183"/>
-    <hyperlink ref="G277" r:id="rId184"/>
-    <hyperlink ref="G278" r:id="rId185"/>
-    <hyperlink ref="G279" r:id="rId186"/>
-    <hyperlink ref="G280" r:id="rId187"/>
-    <hyperlink ref="G281" r:id="rId188"/>
-    <hyperlink ref="G282" r:id="rId189"/>
-    <hyperlink ref="G283" r:id="rId190"/>
-    <hyperlink ref="G284" r:id="rId191"/>
-    <hyperlink ref="G285" r:id="rId192"/>
-    <hyperlink ref="G286" r:id="rId193"/>
-    <hyperlink ref="G287" r:id="rId194"/>
-    <hyperlink ref="G288" r:id="rId195"/>
-    <hyperlink ref="G289" r:id="rId196"/>
-    <hyperlink ref="G290" r:id="rId197"/>
-    <hyperlink ref="G291" r:id="rId198"/>
-    <hyperlink ref="G292" r:id="rId199"/>
-    <hyperlink ref="G293" r:id="rId200"/>
-    <hyperlink ref="G294" r:id="rId201"/>
-    <hyperlink ref="G295" r:id="rId202"/>
-    <hyperlink ref="G296" r:id="rId203"/>
-    <hyperlink ref="G297" r:id="rId204"/>
-    <hyperlink ref="G298" r:id="rId205"/>
-    <hyperlink ref="G299" r:id="rId206"/>
-    <hyperlink ref="G300" r:id="rId207"/>
-    <hyperlink ref="G301" r:id="rId208"/>
-    <hyperlink ref="G302" r:id="rId209"/>
-    <hyperlink ref="G303" r:id="rId210"/>
-    <hyperlink ref="G304" r:id="rId211"/>
-    <hyperlink ref="G305" r:id="rId212"/>
-    <hyperlink ref="G306" r:id="rId213"/>
-    <hyperlink ref="G307" r:id="rId214"/>
-    <hyperlink ref="G308" r:id="rId215"/>
-    <hyperlink ref="G309" r:id="rId216"/>
-    <hyperlink ref="G310" r:id="rId217"/>
-    <hyperlink ref="G311" r:id="rId218"/>
-    <hyperlink ref="G312" r:id="rId219"/>
-    <hyperlink ref="G313" r:id="rId220"/>
-    <hyperlink ref="G314" r:id="rId221"/>
-    <hyperlink ref="G315" r:id="rId222"/>
-    <hyperlink ref="G316" r:id="rId223"/>
-    <hyperlink ref="G317" r:id="rId224"/>
-    <hyperlink ref="G318" r:id="rId225"/>
-    <hyperlink ref="G319" r:id="rId226"/>
-    <hyperlink ref="G320" r:id="rId227"/>
-    <hyperlink ref="G321" r:id="rId228"/>
-    <hyperlink ref="G322" r:id="rId229"/>
-    <hyperlink ref="G323" r:id="rId230"/>
-    <hyperlink ref="G324" r:id="rId231"/>
-    <hyperlink ref="G325" r:id="rId232"/>
-    <hyperlink ref="G326" r:id="rId233"/>
-    <hyperlink ref="G327" r:id="rId234"/>
-    <hyperlink ref="G328" r:id="rId235"/>
-    <hyperlink ref="G329" r:id="rId236"/>
-    <hyperlink ref="G330" r:id="rId237"/>
-    <hyperlink ref="G331" r:id="rId238"/>
-    <hyperlink ref="G332" r:id="rId239"/>
-    <hyperlink ref="G333" r:id="rId240"/>
-    <hyperlink ref="G334" r:id="rId241"/>
-    <hyperlink ref="G335" r:id="rId242"/>
-    <hyperlink ref="G336" r:id="rId243"/>
-    <hyperlink ref="G337" r:id="rId244"/>
-    <hyperlink ref="G338" r:id="rId245"/>
-    <hyperlink ref="G339" r:id="rId246"/>
-    <hyperlink ref="G340" r:id="rId247"/>
-    <hyperlink ref="G341" r:id="rId248"/>
-    <hyperlink ref="G342" r:id="rId249"/>
-    <hyperlink ref="G343" r:id="rId250"/>
-    <hyperlink ref="G344" r:id="rId251"/>
-    <hyperlink ref="G345" r:id="rId252"/>
-    <hyperlink ref="G346" r:id="rId253"/>
-    <hyperlink ref="G347" r:id="rId254"/>
-    <hyperlink ref="G348" r:id="rId255"/>
-    <hyperlink ref="G349" r:id="rId256"/>
-    <hyperlink ref="G350" r:id="rId257"/>
-    <hyperlink ref="G351" r:id="rId258"/>
-    <hyperlink ref="G352" r:id="rId259"/>
-    <hyperlink ref="G353" r:id="rId260"/>
-    <hyperlink ref="G354" r:id="rId261"/>
-    <hyperlink ref="G355" r:id="rId262"/>
-    <hyperlink ref="G356" r:id="rId263"/>
-    <hyperlink ref="G357" r:id="rId264"/>
-    <hyperlink ref="G358" r:id="rId265"/>
-    <hyperlink ref="G359" r:id="rId266"/>
-    <hyperlink ref="G360" r:id="rId267"/>
-    <hyperlink ref="G361" r:id="rId268"/>
-    <hyperlink ref="G362" r:id="rId269"/>
-    <hyperlink ref="G363" r:id="rId270"/>
-    <hyperlink ref="G364" r:id="rId271"/>
-    <hyperlink ref="G365" r:id="rId272"/>
-    <hyperlink ref="G366" r:id="rId273"/>
-    <hyperlink ref="G367" r:id="rId274"/>
-    <hyperlink ref="G368" r:id="rId275"/>
-    <hyperlink ref="G369" r:id="rId276"/>
-    <hyperlink ref="G370" r:id="rId277"/>
-    <hyperlink ref="G371" r:id="rId278"/>
-    <hyperlink ref="G372" r:id="rId279"/>
-    <hyperlink ref="G373" r:id="rId280"/>
-    <hyperlink ref="G374" r:id="rId281"/>
-    <hyperlink ref="G375" r:id="rId282"/>
-    <hyperlink ref="G376" r:id="rId283"/>
-    <hyperlink ref="G377" r:id="rId284"/>
-    <hyperlink ref="G378" r:id="rId285"/>
-    <hyperlink ref="G379" r:id="rId286"/>
-    <hyperlink ref="G380" r:id="rId287"/>
-    <hyperlink ref="G381" r:id="rId288"/>
-    <hyperlink ref="G382" r:id="rId289"/>
-    <hyperlink ref="G383" r:id="rId290"/>
-    <hyperlink ref="G384" r:id="rId291"/>
-    <hyperlink ref="G385" r:id="rId292"/>
-    <hyperlink ref="G386" r:id="rId293"/>
-    <hyperlink ref="G387" r:id="rId294"/>
-    <hyperlink ref="G388" r:id="rId295"/>
-    <hyperlink ref="G389" r:id="rId296"/>
-    <hyperlink ref="G390" r:id="rId297"/>
-    <hyperlink ref="G391" r:id="rId298"/>
-    <hyperlink ref="G392" r:id="rId299"/>
-    <hyperlink ref="G393" r:id="rId300"/>
-    <hyperlink ref="G394" r:id="rId301"/>
-    <hyperlink ref="G395" r:id="rId302"/>
-    <hyperlink ref="G396" r:id="rId303"/>
-    <hyperlink ref="G397" r:id="rId304"/>
-    <hyperlink ref="G398" r:id="rId305"/>
-    <hyperlink ref="G399" r:id="rId306"/>
-    <hyperlink ref="G400" r:id="rId307"/>
-    <hyperlink ref="G401" r:id="rId308"/>
-    <hyperlink ref="G402" r:id="rId309"/>
-    <hyperlink ref="G403" r:id="rId310"/>
-    <hyperlink ref="G404" r:id="rId311"/>
-    <hyperlink ref="G405" r:id="rId312"/>
-    <hyperlink ref="G406" r:id="rId313"/>
-    <hyperlink ref="G407" r:id="rId314"/>
-    <hyperlink ref="G408" r:id="rId315"/>
-    <hyperlink ref="G409" r:id="rId316"/>
-    <hyperlink ref="G410" r:id="rId317"/>
-    <hyperlink ref="G411" r:id="rId318"/>
-    <hyperlink ref="G412" r:id="rId319"/>
-    <hyperlink ref="G413" r:id="rId320"/>
-    <hyperlink ref="G414" r:id="rId321"/>
-    <hyperlink ref="G415" r:id="rId322"/>
-    <hyperlink ref="G416" r:id="rId323"/>
-    <hyperlink ref="G417" r:id="rId324"/>
-    <hyperlink ref="G418" r:id="rId325"/>
-    <hyperlink ref="G419" r:id="rId326"/>
-    <hyperlink ref="G420" r:id="rId327"/>
-    <hyperlink ref="G421" r:id="rId328"/>
-    <hyperlink ref="G422" r:id="rId329"/>
-    <hyperlink ref="G423" r:id="rId330"/>
-    <hyperlink ref="G424" r:id="rId331"/>
-    <hyperlink ref="G425" r:id="rId332"/>
-    <hyperlink ref="G426" r:id="rId333"/>
-    <hyperlink ref="G427" r:id="rId334"/>
-    <hyperlink ref="G428" r:id="rId335"/>
-    <hyperlink ref="G429" r:id="rId336"/>
-    <hyperlink ref="G430" r:id="rId337"/>
-    <hyperlink ref="G431" r:id="rId338"/>
-    <hyperlink ref="G432" r:id="rId339"/>
-    <hyperlink ref="G433" r:id="rId340"/>
-    <hyperlink ref="G434" r:id="rId341"/>
-    <hyperlink ref="G435" r:id="rId342"/>
-    <hyperlink ref="G436" r:id="rId343"/>
-    <hyperlink ref="G437" r:id="rId344"/>
-    <hyperlink ref="G438" r:id="rId345"/>
-    <hyperlink ref="G439" r:id="rId346"/>
-    <hyperlink ref="G440" r:id="rId347"/>
-    <hyperlink ref="G441" r:id="rId348"/>
-    <hyperlink ref="G442" r:id="rId349"/>
-    <hyperlink ref="G443" r:id="rId350"/>
-    <hyperlink ref="G444" r:id="rId351"/>
-    <hyperlink ref="G445" r:id="rId352"/>
-    <hyperlink ref="G446" r:id="rId353"/>
-    <hyperlink ref="G447" r:id="rId354"/>
-    <hyperlink ref="G448" r:id="rId355"/>
-    <hyperlink ref="G449" r:id="rId356"/>
-    <hyperlink ref="G450" r:id="rId357"/>
-    <hyperlink ref="G451" r:id="rId358"/>
-    <hyperlink ref="G452" r:id="rId359"/>
-    <hyperlink ref="G453" r:id="rId360"/>
-    <hyperlink ref="G454" r:id="rId361"/>
-    <hyperlink ref="G455" r:id="rId362"/>
-    <hyperlink ref="G456" r:id="rId363"/>
-    <hyperlink ref="G457" r:id="rId364"/>
-    <hyperlink ref="G458" r:id="rId365"/>
-    <hyperlink ref="G459" r:id="rId366"/>
-    <hyperlink ref="G460" r:id="rId367"/>
-    <hyperlink ref="G461" r:id="rId368"/>
-    <hyperlink ref="G462" r:id="rId369"/>
-    <hyperlink ref="G463" r:id="rId370"/>
-    <hyperlink ref="G464" r:id="rId371"/>
-    <hyperlink ref="G465" r:id="rId372"/>
-    <hyperlink ref="G466" r:id="rId373"/>
-    <hyperlink ref="G467" r:id="rId374"/>
-    <hyperlink ref="G468" r:id="rId375"/>
-    <hyperlink ref="G469" r:id="rId376"/>
-    <hyperlink ref="G470" r:id="rId377"/>
-    <hyperlink ref="G471" r:id="rId378"/>
-    <hyperlink ref="G472" r:id="rId379"/>
-    <hyperlink ref="G473" r:id="rId380"/>
-    <hyperlink ref="G474" r:id="rId381"/>
-    <hyperlink ref="G475" r:id="rId382"/>
-    <hyperlink ref="G476" r:id="rId383"/>
-    <hyperlink ref="G477" r:id="rId384"/>
-    <hyperlink ref="G478" r:id="rId385"/>
-    <hyperlink ref="G479" r:id="rId386"/>
-    <hyperlink ref="G480" r:id="rId387"/>
-    <hyperlink ref="G481" r:id="rId388"/>
-    <hyperlink ref="G482" r:id="rId389"/>
-    <hyperlink ref="G483" r:id="rId390"/>
-    <hyperlink ref="G484" r:id="rId391"/>
-    <hyperlink ref="G485" r:id="rId392"/>
-    <hyperlink ref="G486" r:id="rId393"/>
-    <hyperlink ref="G487" r:id="rId394"/>
-    <hyperlink ref="G488" r:id="rId395"/>
-    <hyperlink ref="G489" r:id="rId396"/>
-    <hyperlink ref="G490" r:id="rId397"/>
-    <hyperlink ref="G491" r:id="rId398"/>
-    <hyperlink ref="G492" r:id="rId399"/>
-    <hyperlink ref="G493" r:id="rId400"/>
-    <hyperlink ref="G494" r:id="rId401"/>
-    <hyperlink ref="G495" r:id="rId402"/>
-    <hyperlink ref="G496" r:id="rId403"/>
-    <hyperlink ref="G497" r:id="rId404"/>
-    <hyperlink ref="G498" r:id="rId405"/>
-    <hyperlink ref="G499" r:id="rId406"/>
-    <hyperlink ref="G500" r:id="rId407"/>
-    <hyperlink ref="G501" r:id="rId408"/>
-    <hyperlink ref="G502" r:id="rId409"/>
-    <hyperlink ref="G503" r:id="rId410"/>
-    <hyperlink ref="G504" r:id="rId411"/>
-    <hyperlink ref="G505" r:id="rId412"/>
-    <hyperlink ref="G506" r:id="rId413"/>
-    <hyperlink ref="G507" r:id="rId414"/>
-    <hyperlink ref="G508" r:id="rId415"/>
-    <hyperlink ref="G509" r:id="rId416"/>
-    <hyperlink ref="G510" r:id="rId417"/>
-    <hyperlink ref="G511" r:id="rId418"/>
-    <hyperlink ref="G512" r:id="rId419"/>
-    <hyperlink ref="G513" r:id="rId420"/>
-    <hyperlink ref="G514" r:id="rId421"/>
-    <hyperlink ref="G515" r:id="rId422"/>
-    <hyperlink ref="G516" r:id="rId423"/>
-    <hyperlink ref="G517" r:id="rId424"/>
-    <hyperlink ref="G518" r:id="rId425"/>
-    <hyperlink ref="G519" r:id="rId426"/>
-    <hyperlink ref="G520" r:id="rId427"/>
-    <hyperlink ref="G521" r:id="rId428"/>
-    <hyperlink ref="G522" r:id="rId429"/>
-    <hyperlink ref="G523" r:id="rId430"/>
-    <hyperlink ref="G524" r:id="rId431"/>
-    <hyperlink ref="G525" r:id="rId432"/>
-    <hyperlink ref="G526" r:id="rId433"/>
-    <hyperlink ref="G527" r:id="rId434"/>
-    <hyperlink ref="G528" r:id="rId435"/>
-    <hyperlink ref="G529" r:id="rId436"/>
-    <hyperlink ref="G530" r:id="rId437"/>
-    <hyperlink ref="G531" r:id="rId438"/>
-    <hyperlink ref="G532" r:id="rId439"/>
-    <hyperlink ref="G533" r:id="rId440"/>
-    <hyperlink ref="G534" r:id="rId441"/>
-    <hyperlink ref="G535" r:id="rId442"/>
-    <hyperlink ref="G536" r:id="rId443"/>
-    <hyperlink ref="G537" r:id="rId444"/>
-    <hyperlink ref="G538" r:id="rId445"/>
-    <hyperlink ref="G539" r:id="rId446"/>
-    <hyperlink ref="G540" r:id="rId447"/>
-    <hyperlink ref="G541" r:id="rId448"/>
-    <hyperlink ref="G542" r:id="rId449"/>
-    <hyperlink ref="G543" r:id="rId450"/>
-    <hyperlink ref="G544" r:id="rId451"/>
-    <hyperlink ref="G545" r:id="rId452"/>
-    <hyperlink ref="G546" r:id="rId453"/>
-    <hyperlink ref="G547" r:id="rId454"/>
-    <hyperlink ref="G548" r:id="rId455"/>
-    <hyperlink ref="G549" r:id="rId456"/>
-    <hyperlink ref="G550" r:id="rId457"/>
-    <hyperlink ref="G551" r:id="rId458"/>
-    <hyperlink ref="G552" r:id="rId459"/>
-    <hyperlink ref="G553" r:id="rId460"/>
-    <hyperlink ref="G554" r:id="rId461"/>
-    <hyperlink ref="G555" r:id="rId462"/>
-    <hyperlink ref="G556" r:id="rId463"/>
-    <hyperlink ref="G557" r:id="rId464"/>
-    <hyperlink ref="G558" r:id="rId465"/>
-    <hyperlink ref="G559" r:id="rId466"/>
-    <hyperlink ref="G560" r:id="rId467"/>
-    <hyperlink ref="G561" r:id="rId468"/>
-    <hyperlink ref="G562" r:id="rId469"/>
-    <hyperlink ref="G563" r:id="rId470"/>
-    <hyperlink ref="G564" r:id="rId471"/>
-    <hyperlink ref="G565" r:id="rId472"/>
-    <hyperlink ref="G566" r:id="rId473"/>
-    <hyperlink ref="G567" r:id="rId474"/>
-    <hyperlink ref="G568" r:id="rId475"/>
-    <hyperlink ref="G569" r:id="rId476"/>
-    <hyperlink ref="G570" r:id="rId477"/>
-    <hyperlink ref="G571" r:id="rId478"/>
-    <hyperlink ref="G572" r:id="rId479"/>
-    <hyperlink ref="G573" r:id="rId480"/>
-    <hyperlink ref="G574" r:id="rId481"/>
-    <hyperlink ref="G575" r:id="rId482"/>
-    <hyperlink ref="G576" r:id="rId483"/>
-    <hyperlink ref="G577" r:id="rId484"/>
-    <hyperlink ref="G578" r:id="rId485"/>
-    <hyperlink ref="G579" r:id="rId486"/>
-    <hyperlink ref="G580" r:id="rId487"/>
-    <hyperlink ref="G581" r:id="rId488"/>
-    <hyperlink ref="G582" r:id="rId489"/>
-    <hyperlink ref="G583" r:id="rId490"/>
-    <hyperlink ref="G584" r:id="rId491"/>
-    <hyperlink ref="G585" r:id="rId492"/>
-    <hyperlink ref="G586" r:id="rId493"/>
-    <hyperlink ref="G587" r:id="rId494"/>
-    <hyperlink ref="G588" r:id="rId495"/>
-    <hyperlink ref="G589" r:id="rId496"/>
-    <hyperlink ref="G590" r:id="rId497"/>
-    <hyperlink ref="G591" r:id="rId498"/>
-    <hyperlink ref="G592" r:id="rId499"/>
-    <hyperlink ref="G593" r:id="rId500"/>
-    <hyperlink ref="G594" r:id="rId501"/>
-    <hyperlink ref="G595" r:id="rId502"/>
-    <hyperlink ref="G596" r:id="rId503"/>
-    <hyperlink ref="G597" r:id="rId504"/>
-    <hyperlink ref="G598" r:id="rId505"/>
-    <hyperlink ref="G599" r:id="rId506"/>
-    <hyperlink ref="G600" r:id="rId507"/>
-    <hyperlink ref="G601" r:id="rId508"/>
-    <hyperlink ref="G602" r:id="rId509"/>
-    <hyperlink ref="G603" r:id="rId510"/>
-    <hyperlink ref="G604" r:id="rId511"/>
-    <hyperlink ref="G605" r:id="rId512"/>
-    <hyperlink ref="G606" r:id="rId513"/>
-    <hyperlink ref="G607" r:id="rId514"/>
-    <hyperlink ref="G608" r:id="rId515"/>
-    <hyperlink ref="G609" r:id="rId516"/>
-    <hyperlink ref="G610" r:id="rId517"/>
-    <hyperlink ref="G611" r:id="rId518"/>
-    <hyperlink ref="G612" r:id="rId519"/>
-    <hyperlink ref="G613" r:id="rId520"/>
-    <hyperlink ref="G614" r:id="rId521"/>
-    <hyperlink ref="G615" r:id="rId522"/>
-    <hyperlink ref="G616" r:id="rId523"/>
-    <hyperlink ref="G617" r:id="rId524"/>
-    <hyperlink ref="G618" r:id="rId525"/>
-    <hyperlink ref="G619" r:id="rId526"/>
-    <hyperlink ref="G620" r:id="rId527"/>
-    <hyperlink ref="G621" r:id="rId528"/>
-    <hyperlink ref="G622" r:id="rId529"/>
-    <hyperlink ref="G623" r:id="rId530"/>
-    <hyperlink ref="G624" r:id="rId531"/>
-    <hyperlink ref="G625" r:id="rId532"/>
-    <hyperlink ref="G626" r:id="rId533"/>
-    <hyperlink ref="G627" r:id="rId534"/>
-    <hyperlink ref="G628" r:id="rId535"/>
-    <hyperlink ref="G629" r:id="rId536"/>
-    <hyperlink ref="G630" r:id="rId537"/>
-    <hyperlink ref="G631" r:id="rId538"/>
-    <hyperlink ref="G632" r:id="rId539"/>
-    <hyperlink ref="G633" r:id="rId540"/>
-    <hyperlink ref="G634" r:id="rId541"/>
-    <hyperlink ref="G635" r:id="rId542"/>
+    <hyperlink ref="G66" r:id="rId1"/>
+    <hyperlink ref="G67" r:id="rId2"/>
+    <hyperlink ref="G68" r:id="rId3"/>
+    <hyperlink ref="G69" r:id="rId4"/>
+    <hyperlink ref="G70" r:id="rId5"/>
+    <hyperlink ref="G71" r:id="rId6"/>
+    <hyperlink ref="G72" r:id="rId7"/>
+    <hyperlink ref="G73" r:id="rId8"/>
+    <hyperlink ref="G74" r:id="rId9"/>
+    <hyperlink ref="G75" r:id="rId10"/>
+    <hyperlink ref="G76" r:id="rId11"/>
+    <hyperlink ref="G77" r:id="rId12"/>
+    <hyperlink ref="G78" r:id="rId13"/>
+    <hyperlink ref="G79" r:id="rId14"/>
+    <hyperlink ref="G80" r:id="rId15"/>
+    <hyperlink ref="G81" r:id="rId16"/>
+    <hyperlink ref="G82" r:id="rId17"/>
+    <hyperlink ref="G83" r:id="rId18"/>
+    <hyperlink ref="G84" r:id="rId19"/>
+    <hyperlink ref="G85" r:id="rId20"/>
+    <hyperlink ref="G86" r:id="rId21"/>
+    <hyperlink ref="G87" r:id="rId22"/>
+    <hyperlink ref="G88" r:id="rId23"/>
+    <hyperlink ref="G89" r:id="rId24"/>
+    <hyperlink ref="G90" r:id="rId25"/>
+    <hyperlink ref="G91" r:id="rId26"/>
+    <hyperlink ref="G92" r:id="rId27"/>
+    <hyperlink ref="G93" r:id="rId28"/>
+    <hyperlink ref="G94" r:id="rId29"/>
+    <hyperlink ref="G95" r:id="rId30"/>
+    <hyperlink ref="G96" r:id="rId31"/>
+    <hyperlink ref="G97" r:id="rId32"/>
+    <hyperlink ref="G98" r:id="rId33"/>
+    <hyperlink ref="G99" r:id="rId34"/>
+    <hyperlink ref="G100" r:id="rId35"/>
+    <hyperlink ref="G101" r:id="rId36"/>
+    <hyperlink ref="G102" r:id="rId37"/>
+    <hyperlink ref="G103" r:id="rId38"/>
+    <hyperlink ref="G104" r:id="rId39"/>
+    <hyperlink ref="G105" r:id="rId40"/>
+    <hyperlink ref="G106" r:id="rId41"/>
+    <hyperlink ref="G107" r:id="rId42"/>
+    <hyperlink ref="G108" r:id="rId43"/>
+    <hyperlink ref="G109" r:id="rId44"/>
+    <hyperlink ref="G110" r:id="rId45"/>
+    <hyperlink ref="G111" r:id="rId46"/>
+    <hyperlink ref="G112" r:id="rId47"/>
+    <hyperlink ref="G113" r:id="rId48"/>
+    <hyperlink ref="G114" r:id="rId49"/>
+    <hyperlink ref="G115" r:id="rId50"/>
+    <hyperlink ref="G116" r:id="rId51"/>
+    <hyperlink ref="G117" r:id="rId52"/>
+    <hyperlink ref="G118" r:id="rId53"/>
+    <hyperlink ref="G119" r:id="rId54"/>
+    <hyperlink ref="G120" r:id="rId55"/>
+    <hyperlink ref="G121" r:id="rId56"/>
+    <hyperlink ref="G122" r:id="rId57"/>
+    <hyperlink ref="G123" r:id="rId58"/>
+    <hyperlink ref="G124" r:id="rId59"/>
+    <hyperlink ref="G125" r:id="rId60"/>
+    <hyperlink ref="G126" r:id="rId61"/>
+    <hyperlink ref="G127" r:id="rId62"/>
+    <hyperlink ref="G128" r:id="rId63"/>
+    <hyperlink ref="G129" r:id="rId64"/>
+    <hyperlink ref="G130" r:id="rId65"/>
+    <hyperlink ref="G131" r:id="rId66"/>
+    <hyperlink ref="G132" r:id="rId67"/>
+    <hyperlink ref="G133" r:id="rId68"/>
+    <hyperlink ref="G134" r:id="rId69"/>
+    <hyperlink ref="G135" r:id="rId70"/>
+    <hyperlink ref="G136" r:id="rId71"/>
+    <hyperlink ref="G137" r:id="rId72"/>
+    <hyperlink ref="G138" r:id="rId73"/>
+    <hyperlink ref="G139" r:id="rId74"/>
+    <hyperlink ref="G140" r:id="rId75"/>
+    <hyperlink ref="G141" r:id="rId76"/>
+    <hyperlink ref="G142" r:id="rId77"/>
+    <hyperlink ref="G143" r:id="rId78"/>
+    <hyperlink ref="G144" r:id="rId79"/>
+    <hyperlink ref="G145" r:id="rId80"/>
+    <hyperlink ref="G146" r:id="rId81"/>
+    <hyperlink ref="G147" r:id="rId82"/>
+    <hyperlink ref="G148" r:id="rId83"/>
+    <hyperlink ref="G149" r:id="rId84"/>
+    <hyperlink ref="G150" r:id="rId85"/>
+    <hyperlink ref="G151" r:id="rId86"/>
+    <hyperlink ref="G152" r:id="rId87"/>
+    <hyperlink ref="G153" r:id="rId88"/>
+    <hyperlink ref="G154" r:id="rId89"/>
+    <hyperlink ref="G155" r:id="rId90"/>
+    <hyperlink ref="G156" r:id="rId91"/>
+    <hyperlink ref="G157" r:id="rId92"/>
+    <hyperlink ref="G158" r:id="rId93"/>
+    <hyperlink ref="G159" r:id="rId94"/>
+    <hyperlink ref="G160" r:id="rId95"/>
+    <hyperlink ref="G161" r:id="rId96"/>
+    <hyperlink ref="G162" r:id="rId97"/>
+    <hyperlink ref="G163" r:id="rId98"/>
+    <hyperlink ref="G164" r:id="rId99"/>
+    <hyperlink ref="G165" r:id="rId100"/>
+    <hyperlink ref="G166" r:id="rId101"/>
+    <hyperlink ref="G167" r:id="rId102"/>
+    <hyperlink ref="G168" r:id="rId103"/>
+    <hyperlink ref="G169" r:id="rId104"/>
+    <hyperlink ref="G170" r:id="rId105"/>
+    <hyperlink ref="G171" r:id="rId106"/>
+    <hyperlink ref="G172" r:id="rId107"/>
+    <hyperlink ref="G173" r:id="rId108"/>
+    <hyperlink ref="G174" r:id="rId109"/>
+    <hyperlink ref="G175" r:id="rId110"/>
+    <hyperlink ref="G176" r:id="rId111"/>
+    <hyperlink ref="G177" r:id="rId112"/>
+    <hyperlink ref="G178" r:id="rId113"/>
+    <hyperlink ref="G179" r:id="rId114"/>
+    <hyperlink ref="G180" r:id="rId115"/>
+    <hyperlink ref="G181" r:id="rId116"/>
+    <hyperlink ref="G182" r:id="rId117"/>
+    <hyperlink ref="G183" r:id="rId118"/>
+    <hyperlink ref="G184" r:id="rId119"/>
+    <hyperlink ref="G185" r:id="rId120"/>
+    <hyperlink ref="G186" r:id="rId121"/>
+    <hyperlink ref="G187" r:id="rId122"/>
+    <hyperlink ref="G188" r:id="rId123"/>
+    <hyperlink ref="G189" r:id="rId124"/>
+    <hyperlink ref="G190" r:id="rId125"/>
+    <hyperlink ref="G191" r:id="rId126"/>
+    <hyperlink ref="G192" r:id="rId127"/>
+    <hyperlink ref="G193" r:id="rId128"/>
+    <hyperlink ref="G194" r:id="rId129"/>
+    <hyperlink ref="G195" r:id="rId130"/>
+    <hyperlink ref="G196" r:id="rId131"/>
+    <hyperlink ref="G197" r:id="rId132"/>
+    <hyperlink ref="G198" r:id="rId133"/>
+    <hyperlink ref="G199" r:id="rId134"/>
+    <hyperlink ref="G200" r:id="rId135"/>
+    <hyperlink ref="G201" r:id="rId136"/>
+    <hyperlink ref="G202" r:id="rId137"/>
+    <hyperlink ref="G203" r:id="rId138"/>
+    <hyperlink ref="G204" r:id="rId139"/>
+    <hyperlink ref="G205" r:id="rId140"/>
+    <hyperlink ref="G206" r:id="rId141"/>
+    <hyperlink ref="G207" r:id="rId142"/>
+    <hyperlink ref="G208" r:id="rId143"/>
+    <hyperlink ref="G209" r:id="rId144"/>
+    <hyperlink ref="G210" r:id="rId145"/>
+    <hyperlink ref="G211" r:id="rId146"/>
+    <hyperlink ref="G212" r:id="rId147"/>
+    <hyperlink ref="G213" r:id="rId148"/>
+    <hyperlink ref="G214" r:id="rId149"/>
+    <hyperlink ref="G215" r:id="rId150"/>
+    <hyperlink ref="G216" r:id="rId151"/>
+    <hyperlink ref="G217" r:id="rId152"/>
+    <hyperlink ref="G218" r:id="rId153"/>
+    <hyperlink ref="G219" r:id="rId154"/>
+    <hyperlink ref="G220" r:id="rId155"/>
+    <hyperlink ref="G221" r:id="rId156"/>
+    <hyperlink ref="G222" r:id="rId157"/>
+    <hyperlink ref="G223" r:id="rId158"/>
+    <hyperlink ref="G224" r:id="rId159"/>
+    <hyperlink ref="G225" r:id="rId160"/>
+    <hyperlink ref="G226" r:id="rId161"/>
+    <hyperlink ref="G227" r:id="rId162"/>
+    <hyperlink ref="G228" r:id="rId163"/>
+    <hyperlink ref="G229" r:id="rId164"/>
+    <hyperlink ref="G230" r:id="rId165"/>
+    <hyperlink ref="G231" r:id="rId166"/>
+    <hyperlink ref="G232" r:id="rId167"/>
+    <hyperlink ref="G233" r:id="rId168"/>
+    <hyperlink ref="G234" r:id="rId169"/>
+    <hyperlink ref="G235" r:id="rId170"/>
+    <hyperlink ref="G236" r:id="rId171"/>
+    <hyperlink ref="G237" r:id="rId172"/>
+    <hyperlink ref="G238" r:id="rId173"/>
+    <hyperlink ref="G239" r:id="rId174"/>
+    <hyperlink ref="G240" r:id="rId175"/>
+    <hyperlink ref="G241" r:id="rId176"/>
+    <hyperlink ref="G242" r:id="rId177"/>
+    <hyperlink ref="G243" r:id="rId178"/>
+    <hyperlink ref="G244" r:id="rId179"/>
+    <hyperlink ref="G245" r:id="rId180"/>
+    <hyperlink ref="G246" r:id="rId181"/>
+    <hyperlink ref="G247" r:id="rId182"/>
+    <hyperlink ref="G248" r:id="rId183"/>
+    <hyperlink ref="G249" r:id="rId184"/>
+    <hyperlink ref="G250" r:id="rId185"/>
+    <hyperlink ref="G251" r:id="rId186"/>
+    <hyperlink ref="G252" r:id="rId187"/>
+    <hyperlink ref="G253" r:id="rId188"/>
+    <hyperlink ref="G254" r:id="rId189"/>
+    <hyperlink ref="G255" r:id="rId190"/>
+    <hyperlink ref="G256" r:id="rId191"/>
+    <hyperlink ref="G257" r:id="rId192"/>
+    <hyperlink ref="G258" r:id="rId193"/>
+    <hyperlink ref="G259" r:id="rId194"/>
+    <hyperlink ref="G260" r:id="rId195"/>
+    <hyperlink ref="G261" r:id="rId196"/>
+    <hyperlink ref="G262" r:id="rId197"/>
+    <hyperlink ref="G263" r:id="rId198"/>
+    <hyperlink ref="G264" r:id="rId199"/>
+    <hyperlink ref="G265" r:id="rId200"/>
+    <hyperlink ref="G266" r:id="rId201"/>
+    <hyperlink ref="G267" r:id="rId202"/>
+    <hyperlink ref="G268" r:id="rId203"/>
+    <hyperlink ref="G269" r:id="rId204"/>
+    <hyperlink ref="G270" r:id="rId205"/>
+    <hyperlink ref="G271" r:id="rId206"/>
+    <hyperlink ref="G272" r:id="rId207"/>
+    <hyperlink ref="G273" r:id="rId208"/>
+    <hyperlink ref="G274" r:id="rId209"/>
+    <hyperlink ref="G275" r:id="rId210"/>
+    <hyperlink ref="G276" r:id="rId211"/>
+    <hyperlink ref="G277" r:id="rId212"/>
+    <hyperlink ref="G278" r:id="rId213"/>
+    <hyperlink ref="G279" r:id="rId214"/>
+    <hyperlink ref="G280" r:id="rId215"/>
+    <hyperlink ref="G281" r:id="rId216"/>
+    <hyperlink ref="G282" r:id="rId217"/>
+    <hyperlink ref="G283" r:id="rId218"/>
+    <hyperlink ref="G284" r:id="rId219"/>
+    <hyperlink ref="G285" r:id="rId220"/>
+    <hyperlink ref="G286" r:id="rId221"/>
+    <hyperlink ref="G287" r:id="rId222"/>
+    <hyperlink ref="G288" r:id="rId223"/>
+    <hyperlink ref="G289" r:id="rId224"/>
+    <hyperlink ref="G290" r:id="rId225"/>
+    <hyperlink ref="G291" r:id="rId226"/>
+    <hyperlink ref="G292" r:id="rId227"/>
+    <hyperlink ref="G293" r:id="rId228"/>
+    <hyperlink ref="G294" r:id="rId229"/>
+    <hyperlink ref="G295" r:id="rId230"/>
+    <hyperlink ref="G296" r:id="rId231"/>
+    <hyperlink ref="G297" r:id="rId232"/>
+    <hyperlink ref="G298" r:id="rId233"/>
+    <hyperlink ref="G299" r:id="rId234"/>
+    <hyperlink ref="G300" r:id="rId235"/>
+    <hyperlink ref="G301" r:id="rId236"/>
+    <hyperlink ref="G302" r:id="rId237"/>
+    <hyperlink ref="G303" r:id="rId238"/>
+    <hyperlink ref="G304" r:id="rId239"/>
+    <hyperlink ref="G305" r:id="rId240"/>
+    <hyperlink ref="G306" r:id="rId241"/>
+    <hyperlink ref="G307" r:id="rId242"/>
+    <hyperlink ref="G308" r:id="rId243"/>
+    <hyperlink ref="G309" r:id="rId244"/>
+    <hyperlink ref="G310" r:id="rId245"/>
+    <hyperlink ref="G311" r:id="rId246"/>
+    <hyperlink ref="G312" r:id="rId247"/>
+    <hyperlink ref="G313" r:id="rId248"/>
+    <hyperlink ref="G314" r:id="rId249"/>
+    <hyperlink ref="G315" r:id="rId250"/>
+    <hyperlink ref="G316" r:id="rId251"/>
+    <hyperlink ref="G317" r:id="rId252"/>
+    <hyperlink ref="G318" r:id="rId253"/>
+    <hyperlink ref="G319" r:id="rId254"/>
+    <hyperlink ref="G320" r:id="rId255"/>
+    <hyperlink ref="G321" r:id="rId256"/>
+    <hyperlink ref="G322" r:id="rId257"/>
+    <hyperlink ref="G323" r:id="rId258"/>
+    <hyperlink ref="G324" r:id="rId259"/>
+    <hyperlink ref="G325" r:id="rId260"/>
+    <hyperlink ref="G326" r:id="rId261"/>
+    <hyperlink ref="G327" r:id="rId262"/>
+    <hyperlink ref="G328" r:id="rId263"/>
+    <hyperlink ref="G329" r:id="rId264"/>
+    <hyperlink ref="G330" r:id="rId265"/>
+    <hyperlink ref="G331" r:id="rId266"/>
+    <hyperlink ref="G332" r:id="rId267"/>
+    <hyperlink ref="G333" r:id="rId268"/>
+    <hyperlink ref="G334" r:id="rId269"/>
+    <hyperlink ref="G335" r:id="rId270"/>
+    <hyperlink ref="G336" r:id="rId271"/>
+    <hyperlink ref="G337" r:id="rId272"/>
+    <hyperlink ref="G338" r:id="rId273"/>
+    <hyperlink ref="G339" r:id="rId274"/>
+    <hyperlink ref="G340" r:id="rId275"/>
+    <hyperlink ref="G341" r:id="rId276"/>
+    <hyperlink ref="G342" r:id="rId277"/>
+    <hyperlink ref="G343" r:id="rId278"/>
+    <hyperlink ref="G344" r:id="rId279"/>
+    <hyperlink ref="G345" r:id="rId280"/>
+    <hyperlink ref="G346" r:id="rId281"/>
+    <hyperlink ref="G347" r:id="rId282"/>
+    <hyperlink ref="G348" r:id="rId283"/>
+    <hyperlink ref="G349" r:id="rId284"/>
+    <hyperlink ref="G350" r:id="rId285"/>
+    <hyperlink ref="G351" r:id="rId286"/>
+    <hyperlink ref="G352" r:id="rId287"/>
+    <hyperlink ref="G353" r:id="rId288"/>
+    <hyperlink ref="G354" r:id="rId289"/>
+    <hyperlink ref="G355" r:id="rId290"/>
+    <hyperlink ref="G356" r:id="rId291"/>
+    <hyperlink ref="G357" r:id="rId292"/>
+    <hyperlink ref="G358" r:id="rId293"/>
+    <hyperlink ref="G359" r:id="rId294"/>
+    <hyperlink ref="G360" r:id="rId295"/>
+    <hyperlink ref="G361" r:id="rId296"/>
+    <hyperlink ref="G362" r:id="rId297"/>
+    <hyperlink ref="G363" r:id="rId298"/>
+    <hyperlink ref="G364" r:id="rId299"/>
+    <hyperlink ref="G365" r:id="rId300"/>
+    <hyperlink ref="G366" r:id="rId301"/>
+    <hyperlink ref="G367" r:id="rId302"/>
+    <hyperlink ref="G368" r:id="rId303"/>
+    <hyperlink ref="G369" r:id="rId304"/>
+    <hyperlink ref="G370" r:id="rId305"/>
+    <hyperlink ref="G371" r:id="rId306"/>
+    <hyperlink ref="G372" r:id="rId307"/>
+    <hyperlink ref="G373" r:id="rId308"/>
+    <hyperlink ref="G374" r:id="rId309"/>
+    <hyperlink ref="G375" r:id="rId310"/>
+    <hyperlink ref="G376" r:id="rId311"/>
+    <hyperlink ref="G377" r:id="rId312"/>
+    <hyperlink ref="G378" r:id="rId313"/>
+    <hyperlink ref="G379" r:id="rId314"/>
+    <hyperlink ref="G380" r:id="rId315"/>
+    <hyperlink ref="G381" r:id="rId316"/>
+    <hyperlink ref="G382" r:id="rId317"/>
+    <hyperlink ref="G383" r:id="rId318"/>
+    <hyperlink ref="G384" r:id="rId319"/>
+    <hyperlink ref="G385" r:id="rId320"/>
+    <hyperlink ref="G386" r:id="rId321"/>
+    <hyperlink ref="G387" r:id="rId322"/>
+    <hyperlink ref="G388" r:id="rId323"/>
+    <hyperlink ref="G389" r:id="rId324"/>
+    <hyperlink ref="G390" r:id="rId325"/>
+    <hyperlink ref="G391" r:id="rId326"/>
+    <hyperlink ref="G392" r:id="rId327"/>
+    <hyperlink ref="G393" r:id="rId328"/>
+    <hyperlink ref="G394" r:id="rId329"/>
+    <hyperlink ref="G395" r:id="rId330"/>
+    <hyperlink ref="G396" r:id="rId331"/>
+    <hyperlink ref="G397" r:id="rId332"/>
+    <hyperlink ref="G398" r:id="rId333"/>
+    <hyperlink ref="G399" r:id="rId334"/>
+    <hyperlink ref="G400" r:id="rId335"/>
+    <hyperlink ref="G401" r:id="rId336"/>
+    <hyperlink ref="G402" r:id="rId337"/>
+    <hyperlink ref="G403" r:id="rId338"/>
+    <hyperlink ref="G404" r:id="rId339"/>
+    <hyperlink ref="G405" r:id="rId340"/>
+    <hyperlink ref="G406" r:id="rId341"/>
+    <hyperlink ref="G407" r:id="rId342"/>
+    <hyperlink ref="G408" r:id="rId343"/>
+    <hyperlink ref="G409" r:id="rId344"/>
+    <hyperlink ref="G410" r:id="rId345"/>
+    <hyperlink ref="G411" r:id="rId346"/>
+    <hyperlink ref="G412" r:id="rId347"/>
+    <hyperlink ref="G413" r:id="rId348"/>
+    <hyperlink ref="G414" r:id="rId349"/>
+    <hyperlink ref="G415" r:id="rId350"/>
+    <hyperlink ref="G416" r:id="rId351"/>
+    <hyperlink ref="G417" r:id="rId352"/>
+    <hyperlink ref="G418" r:id="rId353"/>
+    <hyperlink ref="G419" r:id="rId354"/>
+    <hyperlink ref="G420" r:id="rId355"/>
+    <hyperlink ref="G421" r:id="rId356"/>
+    <hyperlink ref="G422" r:id="rId357"/>
+    <hyperlink ref="G423" r:id="rId358"/>
+    <hyperlink ref="G424" r:id="rId359"/>
+    <hyperlink ref="G425" r:id="rId360"/>
+    <hyperlink ref="G426" r:id="rId361"/>
+    <hyperlink ref="G427" r:id="rId362"/>
+    <hyperlink ref="G428" r:id="rId363"/>
+    <hyperlink ref="G429" r:id="rId364"/>
+    <hyperlink ref="G430" r:id="rId365"/>
+    <hyperlink ref="G431" r:id="rId366"/>
+    <hyperlink ref="G432" r:id="rId367"/>
+    <hyperlink ref="G433" r:id="rId368"/>
+    <hyperlink ref="G434" r:id="rId369"/>
+    <hyperlink ref="G435" r:id="rId370"/>
+    <hyperlink ref="G436" r:id="rId371"/>
+    <hyperlink ref="G437" r:id="rId372"/>
+    <hyperlink ref="G438" r:id="rId373"/>
+    <hyperlink ref="G439" r:id="rId374"/>
+    <hyperlink ref="G440" r:id="rId375"/>
+    <hyperlink ref="G441" r:id="rId376"/>
+    <hyperlink ref="G442" r:id="rId377"/>
+    <hyperlink ref="G443" r:id="rId378"/>
+    <hyperlink ref="G444" r:id="rId379"/>
+    <hyperlink ref="G445" r:id="rId380"/>
+    <hyperlink ref="G446" r:id="rId381"/>
+    <hyperlink ref="G447" r:id="rId382"/>
+    <hyperlink ref="G448" r:id="rId383"/>
+    <hyperlink ref="G449" r:id="rId384"/>
+    <hyperlink ref="G450" r:id="rId385"/>
+    <hyperlink ref="G451" r:id="rId386"/>
+    <hyperlink ref="G452" r:id="rId387"/>
+    <hyperlink ref="G453" r:id="rId388"/>
+    <hyperlink ref="G454" r:id="rId389"/>
+    <hyperlink ref="G455" r:id="rId390"/>
+    <hyperlink ref="G456" r:id="rId391"/>
+    <hyperlink ref="G457" r:id="rId392"/>
+    <hyperlink ref="G458" r:id="rId393"/>
+    <hyperlink ref="G459" r:id="rId394"/>
+    <hyperlink ref="G460" r:id="rId395"/>
+    <hyperlink ref="G461" r:id="rId396"/>
+    <hyperlink ref="G462" r:id="rId397"/>
+    <hyperlink ref="G463" r:id="rId398"/>
+    <hyperlink ref="G464" r:id="rId399"/>
+    <hyperlink ref="G465" r:id="rId400"/>
+    <hyperlink ref="G466" r:id="rId401"/>
+    <hyperlink ref="G467" r:id="rId402"/>
+    <hyperlink ref="G468" r:id="rId403"/>
+    <hyperlink ref="G469" r:id="rId404"/>
+    <hyperlink ref="G470" r:id="rId405"/>
+    <hyperlink ref="G471" r:id="rId406"/>
+    <hyperlink ref="G472" r:id="rId407"/>
+    <hyperlink ref="G473" r:id="rId408"/>
+    <hyperlink ref="G474" r:id="rId409"/>
+    <hyperlink ref="G475" r:id="rId410"/>
+    <hyperlink ref="G476" r:id="rId411"/>
+    <hyperlink ref="G477" r:id="rId412"/>
+    <hyperlink ref="G478" r:id="rId413"/>
+    <hyperlink ref="G479" r:id="rId414"/>
+    <hyperlink ref="G480" r:id="rId415"/>
+    <hyperlink ref="G481" r:id="rId416"/>
+    <hyperlink ref="G482" r:id="rId417"/>
+    <hyperlink ref="G483" r:id="rId418"/>
+    <hyperlink ref="G484" r:id="rId419"/>
+    <hyperlink ref="G485" r:id="rId420"/>
+    <hyperlink ref="G486" r:id="rId421"/>
+    <hyperlink ref="G487" r:id="rId422"/>
+    <hyperlink ref="G488" r:id="rId423"/>
+    <hyperlink ref="G489" r:id="rId424"/>
+    <hyperlink ref="G490" r:id="rId425"/>
+    <hyperlink ref="G491" r:id="rId426"/>
+    <hyperlink ref="G492" r:id="rId427"/>
+    <hyperlink ref="G493" r:id="rId428"/>
+    <hyperlink ref="G494" r:id="rId429"/>
+    <hyperlink ref="G495" r:id="rId430"/>
+    <hyperlink ref="G496" r:id="rId431"/>
+    <hyperlink ref="G497" r:id="rId432"/>
+    <hyperlink ref="G498" r:id="rId433"/>
+    <hyperlink ref="G499" r:id="rId434"/>
+    <hyperlink ref="G500" r:id="rId435"/>
+    <hyperlink ref="G501" r:id="rId436"/>
+    <hyperlink ref="G502" r:id="rId437"/>
+    <hyperlink ref="G503" r:id="rId438"/>
+    <hyperlink ref="G504" r:id="rId439"/>
+    <hyperlink ref="G505" r:id="rId440"/>
+    <hyperlink ref="G506" r:id="rId441"/>
+    <hyperlink ref="G507" r:id="rId442"/>
+    <hyperlink ref="G508" r:id="rId443"/>
+    <hyperlink ref="G509" r:id="rId444"/>
+    <hyperlink ref="G510" r:id="rId445"/>
+    <hyperlink ref="G511" r:id="rId446"/>
+    <hyperlink ref="G512" r:id="rId447"/>
+    <hyperlink ref="G513" r:id="rId448"/>
+    <hyperlink ref="G514" r:id="rId449"/>
+    <hyperlink ref="G515" r:id="rId450"/>
+    <hyperlink ref="G516" r:id="rId451"/>
+    <hyperlink ref="G517" r:id="rId452"/>
+    <hyperlink ref="G518" r:id="rId453"/>
+    <hyperlink ref="G519" r:id="rId454"/>
+    <hyperlink ref="G520" r:id="rId455"/>
+    <hyperlink ref="G521" r:id="rId456"/>
+    <hyperlink ref="G522" r:id="rId457"/>
+    <hyperlink ref="G523" r:id="rId458"/>
+    <hyperlink ref="G524" r:id="rId459"/>
+    <hyperlink ref="G525" r:id="rId460"/>
+    <hyperlink ref="G526" r:id="rId461"/>
+    <hyperlink ref="G527" r:id="rId462"/>
+    <hyperlink ref="G528" r:id="rId463"/>
+    <hyperlink ref="G529" r:id="rId464"/>
+    <hyperlink ref="G530" r:id="rId465"/>
+    <hyperlink ref="G531" r:id="rId466"/>
+    <hyperlink ref="G532" r:id="rId467"/>
+    <hyperlink ref="G533" r:id="rId468"/>
+    <hyperlink ref="G534" r:id="rId469"/>
+    <hyperlink ref="G535" r:id="rId470"/>
+    <hyperlink ref="G536" r:id="rId471"/>
+    <hyperlink ref="G537" r:id="rId472"/>
+    <hyperlink ref="G538" r:id="rId473"/>
+    <hyperlink ref="G539" r:id="rId474"/>
+    <hyperlink ref="G540" r:id="rId475"/>
+    <hyperlink ref="G541" r:id="rId476"/>
+    <hyperlink ref="G542" r:id="rId477"/>
+    <hyperlink ref="G543" r:id="rId478"/>
+    <hyperlink ref="G544" r:id="rId479"/>
+    <hyperlink ref="G545" r:id="rId480"/>
+    <hyperlink ref="G546" r:id="rId481"/>
+    <hyperlink ref="G547" r:id="rId482"/>
+    <hyperlink ref="G548" r:id="rId483"/>
+    <hyperlink ref="G549" r:id="rId484"/>
+    <hyperlink ref="G550" r:id="rId485"/>
+    <hyperlink ref="G551" r:id="rId486"/>
+    <hyperlink ref="G552" r:id="rId487"/>
+    <hyperlink ref="G553" r:id="rId488"/>
+    <hyperlink ref="G554" r:id="rId489"/>
+    <hyperlink ref="G555" r:id="rId490"/>
+    <hyperlink ref="G556" r:id="rId491"/>
+    <hyperlink ref="G557" r:id="rId492"/>
+    <hyperlink ref="G558" r:id="rId493"/>
+    <hyperlink ref="G559" r:id="rId494"/>
+    <hyperlink ref="G560" r:id="rId495"/>
+    <hyperlink ref="G561" r:id="rId496"/>
+    <hyperlink ref="G562" r:id="rId497"/>
+    <hyperlink ref="G563" r:id="rId498"/>
+    <hyperlink ref="G564" r:id="rId499"/>
+    <hyperlink ref="G565" r:id="rId500"/>
+    <hyperlink ref="G566" r:id="rId501"/>
+    <hyperlink ref="G567" r:id="rId502"/>
+    <hyperlink ref="G568" r:id="rId503"/>
+    <hyperlink ref="G569" r:id="rId504"/>
+    <hyperlink ref="G570" r:id="rId505"/>
+    <hyperlink ref="G571" r:id="rId506"/>
+    <hyperlink ref="G572" r:id="rId507"/>
+    <hyperlink ref="G573" r:id="rId508"/>
+    <hyperlink ref="G574" r:id="rId509"/>
+    <hyperlink ref="G575" r:id="rId510"/>
+    <hyperlink ref="G576" r:id="rId511"/>
+    <hyperlink ref="G577" r:id="rId512"/>
+    <hyperlink ref="G578" r:id="rId513"/>
+    <hyperlink ref="G579" r:id="rId514"/>
+    <hyperlink ref="G580" r:id="rId515"/>
+    <hyperlink ref="G581" r:id="rId516"/>
+    <hyperlink ref="G582" r:id="rId517"/>
+    <hyperlink ref="G583" r:id="rId518"/>
+    <hyperlink ref="G584" r:id="rId519"/>
+    <hyperlink ref="G585" r:id="rId520"/>
+    <hyperlink ref="G586" r:id="rId521"/>
+    <hyperlink ref="G587" r:id="rId522"/>
+    <hyperlink ref="G588" r:id="rId523"/>
+    <hyperlink ref="G589" r:id="rId524"/>
+    <hyperlink ref="G590" r:id="rId525"/>
+    <hyperlink ref="G591" r:id="rId526"/>
+    <hyperlink ref="G592" r:id="rId527"/>
+    <hyperlink ref="G593" r:id="rId528"/>
+    <hyperlink ref="G594" r:id="rId529"/>
+    <hyperlink ref="G595" r:id="rId530"/>
+    <hyperlink ref="G596" r:id="rId531"/>
+    <hyperlink ref="G597" r:id="rId532"/>
+    <hyperlink ref="G598" r:id="rId533"/>
+    <hyperlink ref="G599" r:id="rId534"/>
+    <hyperlink ref="G600" r:id="rId535"/>
+    <hyperlink ref="G601" r:id="rId536"/>
+    <hyperlink ref="G602" r:id="rId537"/>
+    <hyperlink ref="G603" r:id="rId538"/>
+    <hyperlink ref="G604" r:id="rId539"/>
+    <hyperlink ref="G605" r:id="rId540"/>
+    <hyperlink ref="G606" r:id="rId541"/>
+    <hyperlink ref="G607" r:id="rId542"/>
+    <hyperlink ref="G608" r:id="rId543"/>
+    <hyperlink ref="G609" r:id="rId544"/>
+    <hyperlink ref="G610" r:id="rId545"/>
+    <hyperlink ref="G611" r:id="rId546"/>
+    <hyperlink ref="G612" r:id="rId547"/>
+    <hyperlink ref="G613" r:id="rId548"/>
+    <hyperlink ref="G614" r:id="rId549"/>
+    <hyperlink ref="G615" r:id="rId550"/>
+    <hyperlink ref="G616" r:id="rId551"/>
+    <hyperlink ref="G617" r:id="rId552"/>
+    <hyperlink ref="G618" r:id="rId553"/>
+    <hyperlink ref="G619" r:id="rId554"/>
+    <hyperlink ref="G620" r:id="rId555"/>
+    <hyperlink ref="G621" r:id="rId556"/>
+    <hyperlink ref="G622" r:id="rId557"/>
+    <hyperlink ref="G623" r:id="rId558"/>
+    <hyperlink ref="G624" r:id="rId559"/>
+    <hyperlink ref="G625" r:id="rId560"/>
+    <hyperlink ref="G626" r:id="rId561"/>
+    <hyperlink ref="G627" r:id="rId562"/>
+    <hyperlink ref="G628" r:id="rId563"/>
+    <hyperlink ref="G629" r:id="rId564"/>
+    <hyperlink ref="G630" r:id="rId565"/>
+    <hyperlink ref="G631" r:id="rId566"/>
+    <hyperlink ref="G632" r:id="rId567"/>
+    <hyperlink ref="G633" r:id="rId568"/>
+    <hyperlink ref="G634" r:id="rId569"/>
+    <hyperlink ref="G635" r:id="rId570"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
